--- a/En Ejecución.xlsx
+++ b/En Ejecución.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC9ACDE-6A82-453D-8C92-DC3513229C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80998B07-90B0-4EC0-97DC-2D8DC5781CA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C4956387-E0A6-48A1-85D7-BBE5A3DDA6FD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C4956387-E0A6-48A1-85D7-BBE5A3DDA6FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="125">
   <si>
     <t xml:space="preserve">Urgencias </t>
   </si>
@@ -424,6 +424,12 @@
   </si>
   <si>
     <t>ALTA</t>
+  </si>
+  <si>
+    <t>Continuar con el año 2017. Primera aproximación de producto.</t>
+  </si>
+  <si>
+    <t>PPT Primera aprox de producto</t>
   </si>
 </sst>
 </file>
@@ -431,7 +437,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -482,7 +488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -505,21 +511,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -558,12 +549,55 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <sz val="9"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -581,35 +615,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -645,8 +651,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>129539</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="DATA">
@@ -669,7 +675,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -723,8 +729,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Estado">
@@ -747,7 +753,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -801,8 +807,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Etapa">
@@ -825,7 +831,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -875,12 +881,12 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>906780</xdr:colOff>
+      <xdr:colOff>827405</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>106679</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Responsable">
@@ -903,7 +909,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -947,18 +953,18 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1005840</xdr:colOff>
+      <xdr:colOff>926465</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
+      <xdr:colOff>537845</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Encargado">
@@ -981,7 +987,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1025,18 +1031,18 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>670560</xdr:colOff>
+      <xdr:colOff>591185</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>73025</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>83821</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Prioridad">
@@ -1059,7 +1065,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1179,15 +1185,15 @@
   <autoFilter ref="B9:K69" xr:uid="{1C14161C-48E9-495E-B654-DB7439BFBDC7}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{B1E56A6B-4559-42C0-92A4-11ABCD2B7F41}" name="DATA" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{0190F04D-EF42-4001-91C0-B7870B705347}" name="Descripción Producto" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{21D2AA35-9318-424E-8A8F-73AA92D83F8B}" name="Observación" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{F28B55D7-A0B9-4960-8AB0-B7D294B2B468}" name="Etapa" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{F3595AF2-5604-4A83-86FF-D1BE0BEE1218}" name="Responsable" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{65182567-7893-4311-84C0-87959137B17B}" name="Estado" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{50879A1C-8E9F-459A-8797-7FC9C7A66068}" name="Actualizado" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{450C8B7E-016E-4613-9AF2-5D155DC06BA0}" name="Próxima Acción" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{6FF4081B-445E-4B32-8E04-89968D40C1B5}" name="Encargado" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{E6153ADB-B3FD-4437-9832-83AB4F7B157C}" name="Prioridad" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{0190F04D-EF42-4001-91C0-B7870B705347}" name="Descripción Producto" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{21D2AA35-9318-424E-8A8F-73AA92D83F8B}" name="Observación" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{F28B55D7-A0B9-4960-8AB0-B7D294B2B468}" name="Etapa" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{F3595AF2-5604-4A83-86FF-D1BE0BEE1218}" name="Responsable" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{65182567-7893-4311-84C0-87959137B17B}" name="Estado" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{50879A1C-8E9F-459A-8797-7FC9C7A66068}" name="Actualizado" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{450C8B7E-016E-4613-9AF2-5D155DC06BA0}" name="Próxima Acción" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{6FF4081B-445E-4B32-8E04-89968D40C1B5}" name="Encargado" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{E6153ADB-B3FD-4437-9832-83AB4F7B157C}" name="Prioridad" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1492,30 +1498,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF86AB94-797D-4D76-B761-37CD00A9A61A}">
   <dimension ref="B5:K69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" customWidth="1"/>
+    <col min="4" max="4" width="34.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="16.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>31</v>
       </c>
@@ -1547,7 +1553,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1567,7 +1573,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
@@ -1587,7 +1593,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
@@ -1607,7 +1613,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
@@ -1631,7 +1637,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
@@ -1661,7 +1667,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1689,7 +1695,7 @@
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>43</v>
       </c>
@@ -1717,7 +1723,7 @@
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,7 +1749,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>43</v>
       </c>
@@ -1765,7 +1771,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>44</v>
       </c>
@@ -1789,7 +1795,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
@@ -1811,7 +1817,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>44</v>
       </c>
@@ -1833,7 +1839,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1855,7 +1861,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
@@ -1877,7 +1883,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1899,7 +1905,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
@@ -1921,7 +1927,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>47</v>
       </c>
@@ -1943,7 +1949,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
         <v>47</v>
       </c>
@@ -1965,7 +1971,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>47</v>
       </c>
@@ -1987,7 +1993,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>18</v>
       </c>
@@ -2007,7 +2013,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
         <v>48</v>
       </c>
@@ -2033,7 +2039,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>48</v>
       </c>
@@ -2057,7 +2063,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
         <v>49</v>
       </c>
@@ -2079,7 +2085,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
         <v>49</v>
       </c>
@@ -2101,7 +2107,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>50</v>
       </c>
@@ -2123,7 +2129,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
@@ -2145,7 +2151,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
@@ -2169,7 +2175,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
@@ -2191,7 +2197,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
         <v>34</v>
       </c>
@@ -2213,7 +2219,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
         <v>35</v>
       </c>
@@ -2237,7 +2243,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
         <v>36</v>
       </c>
@@ -2259,7 +2265,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2281,7 +2287,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2305,7 +2311,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2327,7 +2333,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2351,7 +2357,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
         <v>47</v>
       </c>
@@ -2375,7 +2381,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="2:11" ht="48" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" ht="60" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
         <v>47</v>
       </c>
@@ -2399,7 +2405,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B47" s="1" t="s">
         <v>114</v>
       </c>
@@ -2421,7 +2427,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B48" s="1" t="s">
         <v>36</v>
       </c>
@@ -2447,7 +2453,7 @@
       </c>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B49" s="1" t="s">
         <v>45</v>
       </c>
@@ -2473,7 +2479,7 @@
       </c>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B50" s="1" t="s">
         <v>116</v>
       </c>
@@ -2495,7 +2501,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B51" s="1" t="s">
         <v>45</v>
       </c>
@@ -2517,7 +2523,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2539,7 +2545,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="2:11" ht="36" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:11" ht="36" x14ac:dyDescent="0.35">
       <c r="B53" s="1" t="s">
         <v>47</v>
       </c>
@@ -2563,7 +2569,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B54" s="1" t="s">
         <v>113</v>
       </c>
@@ -2587,7 +2593,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B55" s="1" t="s">
         <v>113</v>
       </c>
@@ -2611,7 +2617,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B56" s="1" t="s">
         <v>34</v>
       </c>
@@ -2635,7 +2641,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B57" s="1" t="s">
         <v>49</v>
       </c>
@@ -2659,14 +2665,16 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B58" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="5"/>
+      <c r="D58" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="E58" s="4" t="s">
         <v>79</v>
       </c>
@@ -2681,14 +2689,16 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B59" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D59" s="5"/>
+      <c r="D59" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="E59" s="4" t="s">
         <v>79</v>
       </c>
@@ -2703,14 +2713,16 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B60" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="5"/>
+      <c r="D60" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="E60" s="4" t="s">
         <v>79</v>
       </c>
@@ -2725,7 +2737,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B61" s="1" t="s">
         <v>119</v>
       </c>
@@ -2747,7 +2759,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B62" s="1" t="s">
         <v>112</v>
       </c>
@@ -2769,7 +2781,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B63" s="1" t="s">
         <v>118</v>
       </c>
@@ -2791,7 +2803,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B64" s="1" t="s">
         <v>41</v>
       </c>
@@ -2813,14 +2825,16 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B65" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="5"/>
+      <c r="D65" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="E65" s="4" t="s">
         <v>79</v>
       </c>
@@ -2829,13 +2843,13 @@
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="2">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="I65" s="5"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B66" s="1" t="s">
         <v>115</v>
       </c>
@@ -2857,7 +2871,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B67" s="1" t="s">
         <v>119</v>
       </c>
@@ -2879,7 +2893,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B68" s="1" t="s">
         <v>117</v>
       </c>
@@ -2901,7 +2915,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B69" s="1" t="s">
         <v>49</v>
       </c>
@@ -2925,17 +2939,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G10:G69">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Revisión"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"En Desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"No Iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Listo!"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Revisión"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/En Ejecución.xlsx
+++ b/En Ejecución.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AD3821-4273-409F-8408-BE9643A21585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E38006-2DD5-4B71-8702-3D8D054E7F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C4956387-E0A6-48A1-85D7-BBE5A3DDA6FD}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="154">
   <si>
     <t xml:space="preserve">Urgencias </t>
   </si>
@@ -423,12 +423,6 @@
     <t>PPT Primera aprox de producto</t>
   </si>
   <si>
-    <t>Héctor</t>
-  </si>
-  <si>
-    <t>Conexión de polígonos de Obras con excel de datos</t>
-  </si>
-  <si>
     <t>BAJA</t>
   </si>
   <si>
@@ -456,12 +450,6 @@
     <t>Edwin está descargado los datos del TRICEL de Chile</t>
   </si>
   <si>
-    <t>Edwin</t>
-  </si>
-  <si>
-    <t>Descarga datos TRICEL</t>
-  </si>
-  <si>
     <t>Solicitar a Abner que organice la BD de Elecciones de Honduras.</t>
   </si>
   <si>
@@ -495,9 +483,6 @@
     <t>NULA</t>
   </si>
   <si>
-    <t>Datos en excel desde R</t>
-  </si>
-  <si>
     <t>Revisión POWER BI</t>
   </si>
   <si>
@@ -517,6 +502,21 @@
   </si>
   <si>
     <t>Efraín</t>
+  </si>
+  <si>
+    <t>Víctor y Christian los están Generando</t>
+  </si>
+  <si>
+    <t>Datos Disponibles en Dropbox. Estructurar Power BI</t>
+  </si>
+  <si>
+    <t>Geomática Agrícola</t>
+  </si>
+  <si>
+    <t>El producto tendrá 2 pestañas. 1. es la explicación en POWER BI y la otra la Herramienta GEE. Ambas listas.</t>
+  </si>
+  <si>
+    <t>Pedir a Abner los puntos del JSON. No tiene polígonos.</t>
   </si>
 </sst>
 </file>
@@ -690,37 +690,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <font>
         <color auto="1"/>
@@ -783,33 +753,9 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -820,15 +766,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -853,7 +790,128 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -961,8 +1019,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Estado">
@@ -985,7 +1043,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1039,8 +1097,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Etapa">
@@ -1063,7 +1121,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1117,8 +1175,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Responsable">
@@ -1141,7 +1199,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1195,8 +1253,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Encargado">
@@ -1219,7 +1277,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1273,8 +1331,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Prioridad">
@@ -1297,7 +1355,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1404,7 +1462,7 @@
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="DATA" xr10:uid="{EA5B5809-CE40-4E8D-89BF-A75A3C2F7D2B}" cache="SegmentaciónDeDatos_DATA" caption="DATA" columnCount="5" style="SlicerStyleDark1" rowHeight="234950"/>
-  <slicer name="Estado" xr10:uid="{63FFA36A-C721-4EAB-A1BC-C1D855F7CC79}" cache="SegmentaciónDeDatos_Estado" caption="Estado" startItem="1" style="SlicerStyleDark5" rowHeight="234950"/>
+  <slicer name="Estado" xr10:uid="{63FFA36A-C721-4EAB-A1BC-C1D855F7CC79}" cache="SegmentaciónDeDatos_Estado" caption="Estado" style="SlicerStyleDark5" rowHeight="234950"/>
   <slicer name="Etapa" xr10:uid="{BB91F2EC-DBEF-43E7-B0E6-D7CB3241652D}" cache="SegmentaciónDeDatos_Etapa" caption="Etapa" style="SlicerStyleDark2" rowHeight="234950"/>
   <slicer name="Responsable" xr10:uid="{6693E2D9-4459-43A0-B566-55BF44150663}" cache="SegmentaciónDeDatos_Responsable" caption="Responsable" columnCount="3" style="SlicerStyleDark6" rowHeight="234950"/>
   <slicer name="Encargado" xr10:uid="{80514466-965C-4044-8355-E6D53F801D18}" cache="SegmentaciónDeDatos_Encargado" caption="Encargado" columnCount="3" style="SlicerStyleDark3" rowHeight="234950"/>
@@ -1413,28 +1471,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EB199BD-82BD-4A43-BB9D-9A1EC2060DEE}" name="ESTADO_DATA" displayName="ESTADO_DATA" ref="B10:K70" totalsRowShown="0" dataDxfId="15">
-  <autoFilter ref="B10:K70" xr:uid="{1C14161C-48E9-495E-B654-DB7439BFBDC7}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Astrid"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B11:K70">
-    <sortCondition descending="1" ref="H10:H70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EB199BD-82BD-4A43-BB9D-9A1EC2060DEE}" name="ESTADO_DATA" displayName="ESTADO_DATA" ref="B10:K71" totalsRowShown="0" dataDxfId="15">
+  <autoFilter ref="B10:K71" xr:uid="{1C14161C-48E9-495E-B654-DB7439BFBDC7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B11:K71">
+    <sortCondition descending="1" ref="H11:H71"/>
+    <sortCondition ref="K11:K71"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B1E56A6B-4559-42C0-92A4-11ABCD2B7F41}" name="DATA" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{0190F04D-EF42-4001-91C0-B7870B705347}" name="Descripción Producto" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{21D2AA35-9318-424E-8A8F-73AA92D83F8B}" name="Observación" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{F28B55D7-A0B9-4960-8AB0-B7D294B2B468}" name="Etapa" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{F3595AF2-5604-4A83-86FF-D1BE0BEE1218}" name="Responsable" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{65182567-7893-4311-84C0-87959137B17B}" name="Estado" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{50879A1C-8E9F-459A-8797-7FC9C7A66068}" name="Actualizado" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{450C8B7E-016E-4613-9AF2-5D155DC06BA0}" name="Próxima Acción" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{6FF4081B-445E-4B32-8E04-89968D40C1B5}" name="Encargado" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{E6153ADB-B3FD-4437-9832-83AB4F7B157C}" name="Prioridad" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{B1E56A6B-4559-42C0-92A4-11ABCD2B7F41}" name="DATA" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{0190F04D-EF42-4001-91C0-B7870B705347}" name="Descripción Producto" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{21D2AA35-9318-424E-8A8F-73AA92D83F8B}" name="Observación" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{F28B55D7-A0B9-4960-8AB0-B7D294B2B468}" name="Etapa" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{F3595AF2-5604-4A83-86FF-D1BE0BEE1218}" name="Responsable" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{65182567-7893-4311-84C0-87959137B17B}" name="Estado" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{50879A1C-8E9F-459A-8797-7FC9C7A66068}" name="Actualizado" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{450C8B7E-016E-4613-9AF2-5D155DC06BA0}" name="Próxima Acción" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{6FF4081B-445E-4B32-8E04-89968D40C1B5}" name="Encargado" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{E6153ADB-B3FD-4437-9832-83AB4F7B157C}" name="Prioridad" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1737,11 +1790,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF86AB94-797D-4D76-B761-37CD00A9A61A}">
-  <dimension ref="B5:K70"/>
+  <dimension ref="B5:K71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1796,7 +1849,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" ht="24" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
         <v>35</v>
       </c>
@@ -1816,10 +1869,10 @@
         <v>51</v>
       </c>
       <c r="H11" s="2">
-        <v>44169</v>
+        <v>44173</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>104</v>
@@ -1828,7 +1881,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" ht="24" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>44</v>
       </c>
@@ -1848,10 +1901,10 @@
         <v>51</v>
       </c>
       <c r="H12" s="2">
-        <v>44169</v>
+        <v>44173</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>105</v>
@@ -1862,163 +1915,163 @@
     </row>
     <row r="13" spans="2:11" ht="24" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="H13" s="2">
-        <v>44169</v>
+        <v>44173</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>142</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="24" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>120</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="13" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="H14" s="2">
-        <v>44169</v>
+        <v>44173</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="24" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="2">
-        <v>44169</v>
+        <v>44173</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>131</v>
+      </c>
       <c r="E16" s="13" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>50</v>
       </c>
       <c r="H16" s="2">
-        <v>44169</v>
+        <v>44173</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="36" hidden="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="36" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="H17" s="2">
-        <v>44169</v>
+        <v>44173</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>127</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>114</v>
       </c>
@@ -2026,7 +2079,7 @@
         <v>76</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>78</v>
@@ -2038,34 +2091,34 @@
         <v>50</v>
       </c>
       <c r="H18" s="2">
-        <v>44169</v>
+        <v>44173</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="J18" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H19" s="2">
         <v>44169</v>
@@ -2074,110 +2127,112 @@
         <v>142</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="H20" s="2">
         <v>44169</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="E21" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="H21" s="2">
         <v>44169</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H22" s="2">
         <v>44169</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="13" t="s">
@@ -2187,36 +2242,34 @@
         <v>89</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="H23" s="2">
         <v>44169</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" ht="24" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>132</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>50</v>
@@ -2225,102 +2278,100 @@
         <v>44169</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" ht="36" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>135</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H25" s="2">
         <v>44169</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K25" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H26" s="2">
         <v>44169</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="H27" s="2">
         <v>44169</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K27" s="9" t="s">
         <v>119</v>
@@ -2328,28 +2379,26 @@
     </row>
     <row r="28" spans="2:11" ht="24" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="H28" s="2">
         <v>44169</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J28" s="11" t="s">
         <v>91</v>
@@ -2360,111 +2409,107 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>98</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D29" s="3"/>
       <c r="E29" s="13" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="H29" s="2">
         <v>44169</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J29" s="11" t="s">
         <v>91</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>100</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D30" s="3"/>
       <c r="E30" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>86</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H30" s="2">
         <v>44169</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J30" s="11" t="s">
         <v>91</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>121</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D31" s="3"/>
       <c r="E31" s="13" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>51</v>
       </c>
       <c r="H31" s="2">
-        <v>44167</v>
+        <v>44169</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J31" s="11" t="s">
         <v>91</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>50</v>
@@ -2473,26 +2518,30 @@
         <v>44169</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E33" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>50</v>
@@ -2501,214 +2550,206 @@
         <v>44169</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="24" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>140</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D34" s="3"/>
       <c r="E34" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H34" s="2">
         <v>44169</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>1</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D35" s="3"/>
       <c r="E35" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H35" s="2">
         <v>44169</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="H36" s="2">
         <v>44169</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="13" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H37" s="2">
         <v>44169</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="13" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G38" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="2">
+        <v>44169</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B39" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H38" s="2">
-        <v>44169</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="H39" s="2">
         <v>44169</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C40" s="1"/>
       <c r="D40" s="3"/>
       <c r="E40" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>50</v>
@@ -2717,30 +2758,28 @@
         <v>44169</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J40" s="11" t="s">
         <v>106</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="24" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>1</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D41" s="3"/>
       <c r="E41" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>50</v>
@@ -2749,28 +2788,26 @@
         <v>44169</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="24" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>50</v>
@@ -2779,28 +2816,30 @@
         <v>44169</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="E43" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>50</v>
@@ -2809,28 +2848,30 @@
         <v>44169</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="24" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="E44" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>50</v>
@@ -2839,28 +2880,28 @@
         <v>44169</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="J44" s="11" t="s">
         <v>91</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>50</v>
@@ -2869,146 +2910,154 @@
         <v>44169</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="24" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="13" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H46" s="2">
         <v>44169</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="24" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D47" s="3"/>
       <c r="E47" s="13" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H47" s="2">
         <v>44169</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E48" s="13" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="H48" s="2">
         <v>44169</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E49" s="13" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H49" s="2">
         <v>44169</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J49" s="11" t="s">
         <v>91</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" s="14" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E50" s="13" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>51</v>
@@ -3017,28 +3066,30 @@
         <v>44169</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>91</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="E51" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>50</v>
@@ -3047,28 +3098,28 @@
         <v>44169</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="14" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>50</v>
@@ -3077,28 +3128,28 @@
         <v>44169</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>51</v>
@@ -3107,118 +3158,122 @@
         <v>44169</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="E54" s="13" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="H54" s="2">
         <v>44169</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J54" s="11" t="s">
         <v>91</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="E55" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>86</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H55" s="2">
         <v>44169</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J55" s="11" t="s">
         <v>91</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C56" s="1"/>
       <c r="D56" s="3"/>
       <c r="E56" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H56" s="2">
         <v>44169</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="E57" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>50</v>
@@ -3227,30 +3282,30 @@
         <v>44169</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>50</v>
@@ -3259,62 +3314,58 @@
         <v>44169</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>93</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D59" s="3"/>
       <c r="E59" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="H59" s="2">
         <v>44169</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="2:11" ht="60" x14ac:dyDescent="0.3">
       <c r="B60" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>94</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D60" s="3"/>
       <c r="E60" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>50</v>
@@ -3323,191 +3374,189 @@
         <v>44169</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61" s="14" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H61" s="2">
         <v>44169</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B62" s="14" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H62" s="2">
         <v>44169</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="E63" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H63" s="2">
         <v>44169</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B64" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D64" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="D64" s="15"/>
       <c r="E64" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H64" s="2">
         <v>44169</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="2:11" ht="36" x14ac:dyDescent="0.3">
       <c r="B65" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>137</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D65" s="3"/>
       <c r="E65" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="H65" s="2">
         <v>44169</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B66" s="14" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>99</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D66" s="3"/>
       <c r="E66" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H66" s="2">
         <v>44169</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="J66" s="11" t="s">
         <v>91</v>
@@ -3518,17 +3567,19 @@
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B67" s="14" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E67" s="13" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>51</v>
@@ -3537,28 +3588,28 @@
         <v>44169</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J67" s="11" t="s">
         <v>91</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B68" s="14" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="13" t="s">
         <v>78</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>51</v>
@@ -3567,94 +3618,128 @@
         <v>44169</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J68" s="11" t="s">
         <v>91</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B69" s="14" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="13" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="H69" s="2">
         <v>44169</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B70" s="14" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D70" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="E70" s="13" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="H70" s="2">
         <v>44169</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J70" s="11" t="s">
         <v>91</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>124</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="B71" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H71" s="2">
+        <v>44167</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G11:G70">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+  <conditionalFormatting sqref="G11:G71">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"En Desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>"No Iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>"Listo!"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"Cerrado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H70">
+  <conditionalFormatting sqref="H11:H71">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/En Ejecución.xlsx
+++ b/En Ejecución.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E38006-2DD5-4B71-8702-3D8D054E7F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE8AEC4-9EBC-443A-B6D4-3A7AE3E162B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C4956387-E0A6-48A1-85D7-BBE5A3DDA6FD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C4956387-E0A6-48A1-85D7-BBE5A3DDA6FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="162">
   <si>
     <t xml:space="preserve">Urgencias </t>
   </si>
@@ -63,9 +63,6 @@
     <t xml:space="preserve">Actualización semanal </t>
   </si>
   <si>
-    <t>Listo!</t>
-  </si>
-  <si>
     <t>Enfermedades cardiovasculares</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>BD Indígena Hondura</t>
   </si>
   <si>
-    <t>Sistematización BD INE para elaborar power bi</t>
-  </si>
-  <si>
     <t>DATA</t>
   </si>
   <si>
@@ -219,9 +213,6 @@
     <t>Honduras</t>
   </si>
   <si>
-    <t>Conceptos CC, Causas, Impactos</t>
-  </si>
-  <si>
     <t>Etapa</t>
   </si>
   <si>
@@ -354,12 +345,6 @@
     <t>en desarrollo (hoy 26 Nov VC)</t>
   </si>
   <si>
-    <t xml:space="preserve">En desarrollo </t>
-  </si>
-  <si>
-    <t>Ordenar en carpetas, como el Global,  Chile tb</t>
-  </si>
-  <si>
     <t>BD Femicidio El Salvador</t>
   </si>
   <si>
@@ -420,9 +405,6 @@
     <t>Continuar con el año 2017. Primera aproximación de producto.</t>
   </si>
   <si>
-    <t>PPT Primera aprox de producto</t>
-  </si>
-  <si>
     <t>BAJA</t>
   </si>
   <si>
@@ -441,12 +423,6 @@
     <t>Revisión por parte de Claudia</t>
   </si>
   <si>
-    <t>Revisión por parte de Natalia</t>
-  </si>
-  <si>
-    <t>Construcción Power BI</t>
-  </si>
-  <si>
     <t>Edwin está descargado los datos del TRICEL de Chile</t>
   </si>
   <si>
@@ -495,9 +471,6 @@
     <t>Luis</t>
   </si>
   <si>
-    <t>Terminado y Publicado</t>
-  </si>
-  <si>
     <t>Generar Modelo para elaborar producto</t>
   </si>
   <si>
@@ -517,6 +490,57 @@
   </si>
   <si>
     <t>Pedir a Abner los puntos del JSON. No tiene polígonos.</t>
+  </si>
+  <si>
+    <t>Listo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisión </t>
+  </si>
+  <si>
+    <t>BD Femicidio Hondura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carolina apoyando </t>
+  </si>
+  <si>
+    <t>power bi de prueba del SERNAC (Radiografía Reclamo Adultos); problema con las bases de datos que se descargaron: Falta la relación entre BD. Comunicación con Héctor.</t>
+  </si>
+  <si>
+    <t>Seguimiento por parte de Carolina a Héctor</t>
+  </si>
+  <si>
+    <t>el primer data de partidos políticos: Data-partidos tiene los excels listos; segundo data de partidos: data-Lazos Listo; tercer, Data Monetario, Listo</t>
+  </si>
+  <si>
+    <t>Continuar con Transparencia Activa (Organismo Públicos)</t>
+  </si>
+  <si>
+    <t>listo el compilado Demográfico, Educactivo. Esta semana finaliza el económico y con estos 3 se puede comenzar a armara el power By.</t>
+  </si>
+  <si>
+    <t>Listas BD. Solicictud de Carga de los datos a github, para iniciar al power bi, por parte de Paula, pero aun no hay respuesta.</t>
+  </si>
+  <si>
+    <t>BD en github</t>
+  </si>
+  <si>
+    <t>seguimiento</t>
+  </si>
+  <si>
+    <t>Acoger observaciones y correcciones</t>
+  </si>
+  <si>
+    <t>Listo para la Región de La Araucanía</t>
+  </si>
+  <si>
+    <t>Esta listo los conceptos generales, las emisiones de latinoamerica, y también se pueden hacer 3 productos de los factores influyentes para Chile, Latinoamerica y otra lista de Paises que me habia pedido Patricio. Tambien para los impactos y proyecciones Global está lo de Ecosistemas</t>
+  </si>
+  <si>
+    <t>Incorporar en Power by</t>
+  </si>
+  <si>
+    <t>Otros productos considerados para el DATA</t>
   </si>
 </sst>
 </file>
@@ -690,7 +714,455 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="56">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -854,64 +1326,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1471,23 +1885,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EB199BD-82BD-4A43-BB9D-9A1EC2060DEE}" name="ESTADO_DATA" displayName="ESTADO_DATA" ref="B10:K71" totalsRowShown="0" dataDxfId="15">
-  <autoFilter ref="B10:K71" xr:uid="{1C14161C-48E9-495E-B654-DB7439BFBDC7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B11:K71">
-    <sortCondition descending="1" ref="H11:H71"/>
-    <sortCondition ref="K11:K71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EB199BD-82BD-4A43-BB9D-9A1EC2060DEE}" name="ESTADO_DATA" displayName="ESTADO_DATA" ref="B10:K72" totalsRowShown="0" dataDxfId="55">
+  <autoFilter ref="B10:K72" xr:uid="{1C14161C-48E9-495E-B654-DB7439BFBDC7}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="DATACLIMATICO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B11:K70">
+    <sortCondition descending="1" ref="H11:H70"/>
+    <sortCondition ref="K11:K70"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B1E56A6B-4559-42C0-92A4-11ABCD2B7F41}" name="DATA" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{0190F04D-EF42-4001-91C0-B7870B705347}" name="Descripción Producto" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{21D2AA35-9318-424E-8A8F-73AA92D83F8B}" name="Observación" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{F28B55D7-A0B9-4960-8AB0-B7D294B2B468}" name="Etapa" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{F3595AF2-5604-4A83-86FF-D1BE0BEE1218}" name="Responsable" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{65182567-7893-4311-84C0-87959137B17B}" name="Estado" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{50879A1C-8E9F-459A-8797-7FC9C7A66068}" name="Actualizado" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{450C8B7E-016E-4613-9AF2-5D155DC06BA0}" name="Próxima Acción" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{6FF4081B-445E-4B32-8E04-89968D40C1B5}" name="Encargado" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{E6153ADB-B3FD-4437-9832-83AB4F7B157C}" name="Prioridad" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{B1E56A6B-4559-42C0-92A4-11ABCD2B7F41}" name="DATA" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{0190F04D-EF42-4001-91C0-B7870B705347}" name="Descripción Producto" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{21D2AA35-9318-424E-8A8F-73AA92D83F8B}" name="Observación" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{F28B55D7-A0B9-4960-8AB0-B7D294B2B468}" name="Etapa" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{F3595AF2-5604-4A83-86FF-D1BE0BEE1218}" name="Responsable" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{65182567-7893-4311-84C0-87959137B17B}" name="Estado" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{50879A1C-8E9F-459A-8797-7FC9C7A66068}" name="Actualizado" dataDxfId="48"/>
+    <tableColumn id="8" xr3:uid="{450C8B7E-016E-4613-9AF2-5D155DC06BA0}" name="Próxima Acción" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{6FF4081B-445E-4B32-8E04-89968D40C1B5}" name="Encargado" dataDxfId="46"/>
+    <tableColumn id="10" xr3:uid="{E6153ADB-B3FD-4437-9832-83AB4F7B157C}" name="Prioridad" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1790,1957 +2210,2017 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF86AB94-797D-4D76-B761-37CD00A9A61A}">
-  <dimension ref="B5:K71"/>
+  <dimension ref="B5:K72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" customWidth="1"/>
+    <col min="4" max="4" width="34.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.54296875" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="16.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="24" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H11" s="2">
         <v>44173</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="24" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H12" s="2">
         <v>44173</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="24" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H13" s="2">
         <v>44173</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="24" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>127</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="E14" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H14" s="2">
-        <v>44173</v>
+        <v>44175</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="24" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H15" s="2">
         <v>44173</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>56</v>
-      </c>
       <c r="F16" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H16" s="2">
         <v>44173</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="36" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H17" s="2">
         <v>44173</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B18" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" s="2">
         <v>44173</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H19" s="2">
         <v>44169</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H20" s="2">
-        <v>44169</v>
+        <v>44174</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" s="14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H21" s="2">
         <v>44169</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="E22" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H22" s="2">
         <v>44169</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" s="2">
         <v>44169</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="24" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H24" s="2">
         <v>44169</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="36" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="2">
+        <v>44173</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J25" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="2">
-        <v>44169</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>91</v>
-      </c>
       <c r="K25" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H26" s="2">
         <v>44169</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B27" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H27" s="2">
         <v>44169</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="24" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="2">
+        <v>44173</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" s="2">
-        <v>44169</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H29" s="2">
         <v>44169</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H30" s="2">
         <v>44169</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B31" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="2">
+        <v>44173</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31" s="2">
-        <v>44169</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H32" s="2">
         <v>44169</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H33" s="2">
-        <v>44169</v>
+        <v>44175</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" ht="24" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" s="14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H34" s="2">
         <v>44169</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B35" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H35" s="2">
         <v>44169</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H36" s="2">
         <v>44169</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H37" s="2">
         <v>44169</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" s="14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H38" s="2">
         <v>44169</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B39" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="E39" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H39" s="2">
-        <v>44169</v>
+        <v>44174</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="3"/>
       <c r="E40" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H40" s="2">
         <v>44169</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="24" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H41" s="2">
         <v>44169</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="24" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="3"/>
       <c r="E42" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H42" s="2">
         <v>44169</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H43" s="2">
         <v>44169</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J43" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="60" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K43" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" ht="24" x14ac:dyDescent="0.3">
-      <c r="B44" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="E44" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H44" s="2">
         <v>44169</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B45" s="14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H45" s="2">
         <v>44169</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" ht="24" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B46" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H46" s="2">
         <v>44169</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="24" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B47" s="14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="G47" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H47" s="2">
         <v>44169</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B48" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H48" s="2">
         <v>44169</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B49" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H49" s="2">
         <v>44169</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B50" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E50" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F50" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="G50" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H50" s="2">
         <v>44169</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K50" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="E51" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H51" s="2">
         <v>44169</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B52" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H52" s="2">
         <v>44169</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B53" s="14" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="E53" s="13" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="H53" s="2">
         <v>44169</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="72" x14ac:dyDescent="0.35">
       <c r="B54" s="14" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="H54" s="2">
-        <v>44169</v>
+        <v>44174</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B55" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="H55" s="2">
         <v>44169</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B56" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E56" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H56" s="2">
         <v>44169</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B57" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H57" s="2">
         <v>44169</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B58" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>1</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D58" s="3"/>
       <c r="E58" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="H58" s="2">
         <v>44169</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B59" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="H59" s="2">
         <v>44169</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" ht="60" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B60" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H60" s="2">
         <v>44169</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B61" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H61" s="2">
         <v>44169</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B62" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="3"/>
+      <c r="D62" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="E62" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H62" s="2">
         <v>44169</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B63" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="D63" s="15"/>
       <c r="E63" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H63" s="2">
         <v>44169</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B64" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="15"/>
+      <c r="D64" s="3"/>
       <c r="E64" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H64" s="2">
         <v>44169</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" ht="36" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B65" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H65" s="2">
         <v>44169</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="B66" s="14" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="E66" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G66" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H66" s="2">
+        <v>44173</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" ht="48" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H67" s="2">
+        <v>44172</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="H66" s="2">
-        <v>44169</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="J66" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K66" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H67" s="2">
-        <v>44169</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J67" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K67" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="13" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="H68" s="2">
-        <v>44169</v>
+        <v>44173</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="B69" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D69" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="E69" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="H69" s="2">
         <v>44169</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="B70" s="14" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="H70" s="2">
-        <v>44169</v>
+        <v>44175</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" ht="36" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B71" s="14" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H71" s="2">
-        <v>44167</v>
+        <v>44175</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>122</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H72" s="2">
+        <v>44175</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G11:G71">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+  <conditionalFormatting sqref="G11:G72">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+      <formula>"Cerrado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"En Desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>"No Iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
       <formula>"Listo!"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
-      <formula>"Cerrado"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:K72">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"NULA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"BAJA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"MEDIA"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"ALTA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H71">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="H11:H72">
+    <cfRule type="iconSet" priority="21">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -3749,14 +4229,15 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId3"/>
+        <x14:slicer r:id="rId4"/>
       </x14:slicerList>
     </ext>
   </extLst>

--- a/En Ejecución.xlsx
+++ b/En Ejecución.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE8AEC4-9EBC-443A-B6D4-3A7AE3E162B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7C0A0F-AA13-48B3-A28A-193F7835FA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C4956387-E0A6-48A1-85D7-BBE5A3DDA6FD}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="163">
   <si>
     <t xml:space="preserve">Urgencias </t>
   </si>
@@ -516,9 +516,6 @@
     <t>Continuar con Transparencia Activa (Organismo Públicos)</t>
   </si>
   <si>
-    <t>listo el compilado Demográfico, Educactivo. Esta semana finaliza el económico y con estos 3 se puede comenzar a armara el power By.</t>
-  </si>
-  <si>
     <t>Listas BD. Solicictud de Carga de los datos a github, para iniciar al power bi, por parte de Paula, pero aun no hay respuesta.</t>
   </si>
   <si>
@@ -541,6 +538,12 @@
   </si>
   <si>
     <t>Otros productos considerados para el DATA</t>
+  </si>
+  <si>
+    <t>listo el compilado Demográfico, Educactivo. Esta semana finaliza el económico y con estos 3 se puede comenzar a armar el power By.</t>
+  </si>
+  <si>
+    <t>Citación VC coordinación elab power bi</t>
   </si>
 </sst>
 </file>
@@ -714,7 +717,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="51">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -986,64 +989,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1885,11 +1830,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EB199BD-82BD-4A43-BB9D-9A1EC2060DEE}" name="ESTADO_DATA" displayName="ESTADO_DATA" ref="B10:K72" totalsRowShown="0" dataDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EB199BD-82BD-4A43-BB9D-9A1EC2060DEE}" name="ESTADO_DATA" displayName="ESTADO_DATA" ref="B10:K72" totalsRowShown="0" dataDxfId="50">
   <autoFilter ref="B10:K72" xr:uid="{1C14161C-48E9-495E-B654-DB7439BFBDC7}">
     <filterColumn colId="0">
       <filters>
-        <filter val="DATACLIMATICO"/>
+        <filter val="DATAAGRO"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1898,16 +1843,16 @@
     <sortCondition ref="K11:K70"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B1E56A6B-4559-42C0-92A4-11ABCD2B7F41}" name="DATA" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{0190F04D-EF42-4001-91C0-B7870B705347}" name="Descripción Producto" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{21D2AA35-9318-424E-8A8F-73AA92D83F8B}" name="Observación" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{F28B55D7-A0B9-4960-8AB0-B7D294B2B468}" name="Etapa" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{F3595AF2-5604-4A83-86FF-D1BE0BEE1218}" name="Responsable" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{65182567-7893-4311-84C0-87959137B17B}" name="Estado" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{50879A1C-8E9F-459A-8797-7FC9C7A66068}" name="Actualizado" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{450C8B7E-016E-4613-9AF2-5D155DC06BA0}" name="Próxima Acción" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{6FF4081B-445E-4B32-8E04-89968D40C1B5}" name="Encargado" dataDxfId="46"/>
-    <tableColumn id="10" xr3:uid="{E6153ADB-B3FD-4437-9832-83AB4F7B157C}" name="Prioridad" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{B1E56A6B-4559-42C0-92A4-11ABCD2B7F41}" name="DATA" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{0190F04D-EF42-4001-91C0-B7870B705347}" name="Descripción Producto" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{21D2AA35-9318-424E-8A8F-73AA92D83F8B}" name="Observación" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{F28B55D7-A0B9-4960-8AB0-B7D294B2B468}" name="Etapa" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{F3595AF2-5604-4A83-86FF-D1BE0BEE1218}" name="Responsable" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{65182567-7893-4311-84C0-87959137B17B}" name="Estado" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{50879A1C-8E9F-459A-8797-7FC9C7A66068}" name="Actualizado" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{450C8B7E-016E-4613-9AF2-5D155DC06BA0}" name="Próxima Acción" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{6FF4081B-445E-4B32-8E04-89968D40C1B5}" name="Encargado" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{E6153ADB-B3FD-4437-9832-83AB4F7B157C}" name="Prioridad" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2214,7 +2159,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2333,7 +2278,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>44</v>
       </c>
@@ -2365,7 +2310,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
         <v>44</v>
       </c>
@@ -2373,7 +2318,7 @@
         <v>127</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>53</v>
@@ -2388,10 +2333,10 @@
         <v>44175</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>114</v>
@@ -2461,7 +2406,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" ht="36" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
         <v>44</v>
       </c>
@@ -2555,7 +2500,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
         <v>46</v>
       </c>
@@ -2576,7 +2521,7 @@
         <v>44174</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>101</v>
@@ -2649,7 +2594,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="14" t="s">
         <v>44</v>
       </c>
@@ -2748,7 +2693,9 @@
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="E26" s="13" t="s">
         <v>53</v>
       </c>
@@ -2759,7 +2706,7 @@
         <v>48</v>
       </c>
       <c r="H26" s="2">
-        <v>44169</v>
+        <v>44175</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>130</v>
@@ -2840,7 +2787,9 @@
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="E29" s="13" t="s">
         <v>53</v>
       </c>
@@ -2851,7 +2800,7 @@
         <v>48</v>
       </c>
       <c r="H29" s="2">
-        <v>44169</v>
+        <v>44175</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>130</v>
@@ -2932,7 +2881,9 @@
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="E32" s="13" t="s">
         <v>53</v>
       </c>
@@ -2943,7 +2894,7 @@
         <v>48</v>
       </c>
       <c r="H32" s="2">
-        <v>44169</v>
+        <v>44175</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>130</v>
@@ -2963,7 +2914,7 @@
         <v>27</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>53</v>
@@ -2978,7 +2929,7 @@
         <v>44175</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J33" s="11" t="s">
         <v>101</v>
@@ -3137,7 +3088,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" s="14" t="s">
         <v>46</v>
       </c>
@@ -3145,7 +3096,7 @@
         <v>74</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>75</v>
@@ -3197,7 +3148,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B41" s="14" t="s">
         <v>44</v>
       </c>
@@ -3255,7 +3206,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B43" s="14" t="s">
         <v>44</v>
       </c>
@@ -3287,7 +3238,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="60" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:11" ht="60" x14ac:dyDescent="0.35">
       <c r="B44" s="14" t="s">
         <v>44</v>
       </c>
@@ -3599,7 +3550,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="72" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:11" ht="72" hidden="1" x14ac:dyDescent="0.35">
       <c r="B54" s="14" t="s">
         <v>46</v>
       </c>
@@ -3607,7 +3558,7 @@
         <v>64</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>53</v>
@@ -3622,7 +3573,7 @@
         <v>44174</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J54" s="11" t="s">
         <v>101</v>
@@ -3973,7 +3924,7 @@
         <v>63</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>54</v>
@@ -4050,7 +4001,7 @@
         <v>44173</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J68" s="11" t="s">
         <v>101</v>
@@ -4059,7 +4010,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="2:11" ht="36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:11" ht="36" x14ac:dyDescent="0.35">
       <c r="B69" s="14" t="s">
         <v>44</v>
       </c>
@@ -4146,7 +4097,7 @@
         <v>44175</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J71" s="11" t="s">
         <v>88</v>

--- a/En Ejecución.xlsx
+++ b/En Ejecución.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7C0A0F-AA13-48B3-A28A-193F7835FA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C03A27-F2B3-4863-90A4-554BE4CB23F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C4956387-E0A6-48A1-85D7-BBE5A3DDA6FD}"/>
   </bookViews>
@@ -55,14 +55,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="178">
   <si>
     <t xml:space="preserve">Urgencias </t>
   </si>
   <si>
-    <t xml:space="preserve">Actualización semanal </t>
-  </si>
-  <si>
     <t>Enfermedades cardiovasculares</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>Chile Agricola Gral</t>
   </si>
   <si>
-    <t>Chile Agricola Específico Fruta</t>
-  </si>
-  <si>
     <t>Guatemala</t>
   </si>
   <si>
@@ -330,21 +324,12 @@
     <t>Actualización diaria</t>
   </si>
   <si>
-    <t>La automatización de los datos del INSIVUMEH y Chile que estaba realizando Christian son para las aplicaciones de agroclima y riego (estas no se realizan con power bi...sino con procesamiento de la nube)</t>
-  </si>
-  <si>
     <t>en proceso de solicitud</t>
   </si>
   <si>
     <t>Solicitado a Christian</t>
   </si>
   <si>
-    <t>Revisar el 1 con Monse</t>
-  </si>
-  <si>
-    <t>en desarrollo (hoy 26 Nov VC)</t>
-  </si>
-  <si>
     <t>BD Femicidio El Salvador</t>
   </si>
   <si>
@@ -363,9 +348,6 @@
     <t>Patricio</t>
   </si>
   <si>
-    <t>Revisión Carolina</t>
-  </si>
-  <si>
     <t>Revisión</t>
   </si>
   <si>
@@ -402,9 +384,6 @@
     <t>ALTA</t>
   </si>
   <si>
-    <t>Continuar con el año 2017. Primera aproximación de producto.</t>
-  </si>
-  <si>
     <t>BAJA</t>
   </si>
   <si>
@@ -417,21 +396,12 @@
     <t>Revisión de Paula de los resultados generados por Mario</t>
   </si>
   <si>
-    <t>Desarrollando Power BI</t>
-  </si>
-  <si>
-    <t>Revisión por parte de Claudia</t>
-  </si>
-  <si>
     <t>Edwin está descargado los datos del TRICEL de Chile</t>
   </si>
   <si>
     <t>Solicitar a Abner que organice la BD de Elecciones de Honduras.</t>
   </si>
   <si>
-    <t>Revisión por parte de Reyes- Monse y Control Calidad</t>
-  </si>
-  <si>
     <t>Responsables de desarrollar estas app son Omar (el SIG de nuestro equipo) y Christian (nuestro informático)</t>
   </si>
   <si>
@@ -441,9 +411,6 @@
     <t>Estadísticas de Incendios para Chile</t>
   </si>
   <si>
-    <t>Borrador en Power BI para año 2019</t>
-  </si>
-  <si>
     <t>Actualizar datos y estructurar Power BI</t>
   </si>
   <si>
@@ -486,24 +453,15 @@
     <t>Geomática Agrícola</t>
   </si>
   <si>
-    <t>El producto tendrá 2 pestañas. 1. es la explicación en POWER BI y la otra la Herramienta GEE. Ambas listas.</t>
-  </si>
-  <si>
     <t>Pedir a Abner los puntos del JSON. No tiene polígonos.</t>
   </si>
   <si>
-    <t>Listo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Revisión </t>
   </si>
   <si>
     <t>BD Femicidio Hondura</t>
   </si>
   <si>
-    <t xml:space="preserve">Carolina apoyando </t>
-  </si>
-  <si>
     <t>power bi de prueba del SERNAC (Radiografía Reclamo Adultos); problema con las bases de datos que se descargaron: Falta la relación entre BD. Comunicación con Héctor.</t>
   </si>
   <si>
@@ -516,21 +474,12 @@
     <t>Continuar con Transparencia Activa (Organismo Públicos)</t>
   </si>
   <si>
-    <t>Listas BD. Solicictud de Carga de los datos a github, para iniciar al power bi, por parte de Paula, pero aun no hay respuesta.</t>
-  </si>
-  <si>
-    <t>BD en github</t>
-  </si>
-  <si>
     <t>seguimiento</t>
   </si>
   <si>
     <t>Acoger observaciones y correcciones</t>
   </si>
   <si>
-    <t>Listo para la Región de La Araucanía</t>
-  </si>
-  <si>
     <t>Esta listo los conceptos generales, las emisiones de latinoamerica, y también se pueden hacer 3 productos de los factores influyentes para Chile, Latinoamerica y otra lista de Paises que me habia pedido Patricio. Tambien para los impactos y proyecciones Global está lo de Ecosistemas</t>
   </si>
   <si>
@@ -540,10 +489,154 @@
     <t>Otros productos considerados para el DATA</t>
   </si>
   <si>
-    <t>listo el compilado Demográfico, Educactivo. Esta semana finaliza el económico y con estos 3 se puede comenzar a armar el power By.</t>
-  </si>
-  <si>
-    <t>Citación VC coordinación elab power bi</t>
+    <t>Ranking Educacional</t>
+  </si>
+  <si>
+    <t>Falta glosario y estado de actualización</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">listo el compilado Demográfico, Educactivo. Esta semana finaliza el económico y con estos 3 se puede comenzar a armar el power By. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ELABORACIÓN DEL DATA POR PATRICIO EN BASE A ENCUESTAS CASEN</t>
+    </r>
+  </si>
+  <si>
+    <t>Estadisticas de cultivo Agrícola</t>
+  </si>
+  <si>
+    <t>versión power!</t>
+  </si>
+  <si>
+    <t>Control de Calidad</t>
+  </si>
+  <si>
+    <t>Edición final: hermoseo</t>
+  </si>
+  <si>
+    <t>versión Claudia</t>
+  </si>
+  <si>
+    <t>Incorporar acotaciones de Claudia</t>
+  </si>
+  <si>
+    <t>Control de calidad enviado a corrección a Claudia</t>
+  </si>
+  <si>
+    <t>Actualización de control de calidad</t>
+  </si>
+  <si>
+    <t>Envio de ppt de creación por parte de Claudia</t>
+  </si>
+  <si>
+    <t>AGROSTAT: Chile Agricola Específico Fruta</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La automatización de los datos del INSIVUMEH y Chile que estaba realizando Christian son para las aplicaciones de agroclima y riego (estas no se realizan con power bi...sino con procesamiento de la nube). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO HAY AVANCE</t>
+    </r>
+  </si>
+  <si>
+    <t>NO HAY AVANCES A LA FECHA</t>
+  </si>
+  <si>
+    <t>Listo 2017. Inicicando orden de sistematización 2016 - 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuar con el año 2017. </t>
+  </si>
+  <si>
+    <t>Solicitud de PPt guia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reyes subio información según lo solicitado en las ultimas VC </t>
+  </si>
+  <si>
+    <t>Incorporar al DATA</t>
+  </si>
+  <si>
+    <t>Consulta a Silvia</t>
+  </si>
+  <si>
+    <t>Stand by</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actualización semanal. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No hay avance a la fecha</t>
+    </r>
+  </si>
+  <si>
+    <t>No hay avance a la fecha</t>
+  </si>
+  <si>
+    <t>Actualización semanal. Solicictud de Modelo para elaborar el producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No hay avance a la fecha. :-(</t>
+  </si>
+  <si>
+    <t>Carolina elaborando el power bi</t>
+  </si>
+  <si>
+    <t>Relación de tablas, casi lsita para reemplazar en power bi</t>
+  </si>
+  <si>
+    <t>A la espera de terminar género</t>
+  </si>
+  <si>
+    <t>Elaboración Power Bi</t>
+  </si>
+  <si>
+    <t>AGROSTAT: Papa</t>
+  </si>
+  <si>
+    <t>AGROSTAT: Cítricos</t>
+  </si>
+  <si>
+    <t>Revisión y reenvio por correcciones</t>
+  </si>
+  <si>
+    <r>
+      <t>Borrador en Power BI para año 2019.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> No hay avance a la fecha</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -553,7 +646,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,6 +678,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -670,7 +770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -713,11 +813,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
+  <dxfs count="33">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -755,6 +861,26 @@
       <fill>
         <patternFill>
           <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -813,356 +939,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1271,6 +1047,124 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1820,7 +1714,7 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="DATA" xr10:uid="{EA5B5809-CE40-4E8D-89BF-A75A3C2F7D2B}" cache="SegmentaciónDeDatos_DATA" caption="DATA" columnCount="5" style="SlicerStyleDark1" rowHeight="234950"/>
+  <slicer name="DATA" xr10:uid="{EA5B5809-CE40-4E8D-89BF-A75A3C2F7D2B}" cache="SegmentaciónDeDatos_DATA" caption="DATA" startItem="5" columnCount="5" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Estado" xr10:uid="{63FFA36A-C721-4EAB-A1BC-C1D855F7CC79}" cache="SegmentaciónDeDatos_Estado" caption="Estado" style="SlicerStyleDark5" rowHeight="234950"/>
   <slicer name="Etapa" xr10:uid="{BB91F2EC-DBEF-43E7-B0E6-D7CB3241652D}" cache="SegmentaciónDeDatos_Etapa" caption="Etapa" style="SlicerStyleDark2" rowHeight="234950"/>
   <slicer name="Responsable" xr10:uid="{6693E2D9-4459-43A0-B566-55BF44150663}" cache="SegmentaciónDeDatos_Responsable" caption="Responsable" columnCount="3" style="SlicerStyleDark6" rowHeight="234950"/>
@@ -1830,29 +1724,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EB199BD-82BD-4A43-BB9D-9A1EC2060DEE}" name="ESTADO_DATA" displayName="ESTADO_DATA" ref="B10:K72" totalsRowShown="0" dataDxfId="50">
-  <autoFilter ref="B10:K72" xr:uid="{1C14161C-48E9-495E-B654-DB7439BFBDC7}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="DATAAGRO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EB199BD-82BD-4A43-BB9D-9A1EC2060DEE}" name="ESTADO_DATA" displayName="ESTADO_DATA" ref="B10:K76" totalsRowShown="0" dataDxfId="21">
+  <autoFilter ref="B10:K76" xr:uid="{1C14161C-48E9-495E-B654-DB7439BFBDC7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B11:K70">
     <sortCondition descending="1" ref="H11:H70"/>
     <sortCondition ref="K11:K70"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B1E56A6B-4559-42C0-92A4-11ABCD2B7F41}" name="DATA" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{0190F04D-EF42-4001-91C0-B7870B705347}" name="Descripción Producto" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{21D2AA35-9318-424E-8A8F-73AA92D83F8B}" name="Observación" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{F28B55D7-A0B9-4960-8AB0-B7D294B2B468}" name="Etapa" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{F3595AF2-5604-4A83-86FF-D1BE0BEE1218}" name="Responsable" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{65182567-7893-4311-84C0-87959137B17B}" name="Estado" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{50879A1C-8E9F-459A-8797-7FC9C7A66068}" name="Actualizado" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{450C8B7E-016E-4613-9AF2-5D155DC06BA0}" name="Próxima Acción" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{6FF4081B-445E-4B32-8E04-89968D40C1B5}" name="Encargado" dataDxfId="41"/>
-    <tableColumn id="10" xr3:uid="{E6153ADB-B3FD-4437-9832-83AB4F7B157C}" name="Prioridad" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{B1E56A6B-4559-42C0-92A4-11ABCD2B7F41}" name="DATA" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{0190F04D-EF42-4001-91C0-B7870B705347}" name="Descripción Producto" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{21D2AA35-9318-424E-8A8F-73AA92D83F8B}" name="Observación" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{F28B55D7-A0B9-4960-8AB0-B7D294B2B468}" name="Etapa" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{F3595AF2-5604-4A83-86FF-D1BE0BEE1218}" name="Responsable" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{65182567-7893-4311-84C0-87959137B17B}" name="Estado" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{50879A1C-8E9F-459A-8797-7FC9C7A66068}" name="Actualizado" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{450C8B7E-016E-4613-9AF2-5D155DC06BA0}" name="Próxima Acción" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{6FF4081B-445E-4B32-8E04-89968D40C1B5}" name="Encargado" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{E6153ADB-B3FD-4437-9832-83AB4F7B157C}" name="Prioridad" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2155,11 +2043,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF86AB94-797D-4D76-B761-37CD00A9A61A}">
-  <dimension ref="B5:K72"/>
+  <dimension ref="B5:K76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="10" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2184,1994 +2072,2150 @@
     <row r="9" spans="2:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+      <c r="B11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="F11" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H11" s="2">
         <v>44173</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H12" s="2">
         <v>44173</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>120</v>
+        <v>12</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>151</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="H13" s="2">
-        <v>44173</v>
+        <v>44179</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="2">
+        <v>44179</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="2">
-        <v>44175</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="K14" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H15" s="2">
         <v>44173</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K15" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+      <c r="B16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>53</v>
-      </c>
       <c r="F16" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H16" s="2">
         <v>44173</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="36" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H17" s="2">
-        <v>44173</v>
+        <v>44179</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B18" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>75</v>
-      </c>
       <c r="F18" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18" s="2">
         <v>44173</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H19" s="2">
         <v>44169</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H20" s="2">
         <v>44174</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B21" s="14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H21" s="2">
-        <v>44169</v>
+        <v>44180</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B22" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E22" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H22" s="2">
         <v>44169</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="E23" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F23" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="2">
+        <v>44179</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="2">
+        <v>44180</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="2">
-        <v>44169</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="14" t="s">
+      <c r="K24" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="2">
+        <v>44180</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B26" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="2">
+        <v>44180</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B27" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="12" t="s">
+      <c r="D27" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="2">
+        <v>44180</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B28" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="2">
+        <v>44180</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B29" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="2">
+        <v>44180</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="2">
-        <v>44169</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="12" t="s">
+      <c r="G30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="2">
+        <v>44180</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B31" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="2">
-        <v>44173</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="12" t="s">
+      <c r="G31" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" s="2">
+        <v>44180</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J31" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="2">
-        <v>44175</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14" t="s">
+      <c r="K31" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B32" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="2">
-        <v>44169</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H28" s="2">
-        <v>44173</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" s="2">
-        <v>44175</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="14" t="s">
+      <c r="C32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="2">
+        <v>44180</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+      <c r="B33" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="12" t="s">
+      <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" s="2">
-        <v>44169</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="2">
-        <v>44173</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" s="2">
-        <v>44175</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="36" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="G33" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H33" s="2">
-        <v>44175</v>
+        <v>44179</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B34" s="14" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H34" s="2">
         <v>44169</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B35" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H35" s="2">
         <v>44169</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B36" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H36" s="2">
         <v>44169</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B37" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="H37" s="2">
-        <v>44169</v>
+        <v>44180</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B38" s="14" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="H38" s="2">
-        <v>44169</v>
+        <v>44180</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B39" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H39" s="2">
         <v>44174</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B40" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="E40" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H40" s="2">
-        <v>44169</v>
+        <v>44180</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B41" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>158</v>
+      </c>
       <c r="E41" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H41" s="2">
-        <v>44169</v>
+        <v>44179</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B42" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="3"/>
       <c r="E42" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="H42" s="2">
-        <v>44169</v>
+        <v>44180</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B43" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H43" s="2">
         <v>44169</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="60" x14ac:dyDescent="0.35">
       <c r="B44" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F44" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" s="2">
+        <v>44179</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J44" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H44" s="2">
-        <v>44169</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>88</v>
-      </c>
       <c r="K44" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B45" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="H45" s="2">
-        <v>44169</v>
+        <v>44180</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B46" s="14" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="H46" s="2">
-        <v>44169</v>
+        <v>44180</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B47" s="14" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H47" s="2">
+        <v>44180</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+      <c r="B48" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" s="2">
+        <v>44180</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B49" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H47" s="2">
-        <v>44169</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K47" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="G49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H49" s="2">
+        <v>44180</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B50" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H50" s="2">
+        <v>44180</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+      <c r="B51" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H48" s="2">
-        <v>44169</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H49" s="2">
-        <v>44169</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H50" s="2">
-        <v>44169</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K50" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="D51" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="H51" s="2">
-        <v>44169</v>
+        <v>44180</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B52" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="E52" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H52" s="2">
-        <v>44169</v>
+        <v>44180</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B53" s="14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H53" s="2">
+        <v>44180</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="72" x14ac:dyDescent="0.35">
+      <c r="B54" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H53" s="2">
-        <v>44169</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" ht="72" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="14" t="s">
+      <c r="D54" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="H54" s="2">
         <v>44174</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B55" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H55" s="2">
+        <v>44180</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+      <c r="B56" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" s="2">
+        <v>44180</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B57" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H55" s="2">
-        <v>44169</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="K55" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H56" s="2">
-        <v>44169</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="J56" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="14" t="s">
-        <v>40</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H57" s="2">
-        <v>44169</v>
+        <v>44180</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B58" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H58" s="2">
-        <v>44169</v>
+        <v>44180</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B59" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" s="2">
+        <v>44180</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B60" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H59" s="2">
-        <v>44169</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J59" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="K59" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="3"/>
+      <c r="D60" s="16" t="s">
+        <v>167</v>
+      </c>
       <c r="E60" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H60" s="2">
-        <v>44169</v>
+        <v>44180</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B61" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" s="2">
+        <v>44180</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+      <c r="B62" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H61" s="2">
-        <v>44169</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J61" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="K61" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" s="2">
+        <v>44180</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+      <c r="B63" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H62" s="2">
-        <v>44169</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K62" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D63" s="15"/>
       <c r="E63" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H63" s="2">
         <v>44169</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B64" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H64" s="2">
         <v>44169</v>
       </c>
       <c r="I64" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+      <c r="B65" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H65" s="2">
+        <v>44180</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="60" x14ac:dyDescent="0.35">
+      <c r="B66" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H66" s="2">
+        <v>44179</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" ht="48" x14ac:dyDescent="0.35">
+      <c r="B67" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="J64" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G65" s="4" t="s">
+      <c r="E67" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H67" s="2">
+        <v>44180</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+      <c r="B68" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="H65" s="2">
-        <v>44169</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J65" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K65" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" ht="36" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H66" s="2">
-        <v>44173</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J66" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K66" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" ht="48" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H67" s="2">
-        <v>44172</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J67" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="K67" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H68" s="2">
         <v>44173</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="36" x14ac:dyDescent="0.35">
       <c r="B69" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F69" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H69" s="2">
+        <v>44180</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J69" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H69" s="2">
-        <v>44169</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J69" s="11" t="s">
-        <v>88</v>
-      </c>
       <c r="K69" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" ht="36" hidden="1" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" ht="36" x14ac:dyDescent="0.35">
       <c r="B70" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H70" s="2">
+        <v>44180</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K70" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H70" s="2">
-        <v>44175</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J70" s="11" t="s">
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B71" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H71" s="2">
+        <v>44180</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+      <c r="B72" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K70" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H72" s="2">
+        <v>44180</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B73" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H73" s="2">
+        <v>44179</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B74" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D74" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="E71" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H71" s="2">
-        <v>44175</v>
-      </c>
-      <c r="I71" s="3" t="s">
+      <c r="E74" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H74" s="2">
+        <v>44179</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B75" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J71" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K71" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H72" s="2">
-        <v>44175</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J72" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K72" s="9" t="s">
-        <v>113</v>
+      <c r="E75" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" s="2">
+        <v>44179</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B76" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" s="2">
+        <v>44181</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G11:G72">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+  <conditionalFormatting sqref="G11:G76">
+    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
       <formula>"Cerrado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
       <formula>"En Desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
       <formula>"No Iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
       <formula>"Listo!"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+      <formula>"Stand by"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+      <formula>"Stand by"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K72">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="K11:K76">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"NULA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"BAJA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>"MEDIA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>"ALTA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H72">
-    <cfRule type="iconSet" priority="21">
+  <conditionalFormatting sqref="H11:H76">
+    <cfRule type="iconSet" priority="23">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/En Ejecución.xlsx
+++ b/En Ejecución.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C03A27-F2B3-4863-90A4-554BE4CB23F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DE528F-0E3A-42A4-B91A-E4388B5ED1BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C4956387-E0A6-48A1-85D7-BBE5A3DDA6FD}"/>
   </bookViews>

--- a/En Ejecución.xlsx
+++ b/En Ejecución.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DE528F-0E3A-42A4-B91A-E4388B5ED1BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49584903-094B-4BC9-B766-C44FD482527B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C4956387-E0A6-48A1-85D7-BBE5A3DDA6FD}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="173">
   <si>
     <t xml:space="preserve">Urgencias </t>
   </si>
@@ -327,9 +327,6 @@
     <t>en proceso de solicitud</t>
   </si>
   <si>
-    <t>Solicitado a Christian</t>
-  </si>
-  <si>
     <t>BD Femicidio El Salvador</t>
   </si>
   <si>
@@ -342,9 +339,6 @@
     <t>Víctor</t>
   </si>
   <si>
-    <t>Christian</t>
-  </si>
-  <si>
     <t>Patricio</t>
   </si>
   <si>
@@ -396,9 +390,6 @@
     <t>Revisión de Paula de los resultados generados por Mario</t>
   </si>
   <si>
-    <t>Edwin está descargado los datos del TRICEL de Chile</t>
-  </si>
-  <si>
     <t>Solicitar a Abner que organice la BD de Elecciones de Honduras.</t>
   </si>
   <si>
@@ -447,18 +438,12 @@
     <t>Víctor y Christian los están Generando</t>
   </si>
   <si>
-    <t>Datos Disponibles en Dropbox. Estructurar Power BI</t>
-  </si>
-  <si>
     <t>Geomática Agrícola</t>
   </si>
   <si>
     <t>Pedir a Abner los puntos del JSON. No tiene polígonos.</t>
   </si>
   <si>
-    <t xml:space="preserve">Revisión </t>
-  </si>
-  <si>
     <t>BD Femicidio Hondura</t>
   </si>
   <si>
@@ -472,9 +457,6 @@
   </si>
   <si>
     <t>Continuar con Transparencia Activa (Organismo Públicos)</t>
-  </si>
-  <si>
-    <t>seguimiento</t>
   </si>
   <si>
     <t>Acoger observaciones y correcciones</t>
@@ -603,9 +585,6 @@
     <t xml:space="preserve"> No hay avance a la fecha. :-(</t>
   </si>
   <si>
-    <t>Carolina elaborando el power bi</t>
-  </si>
-  <si>
     <t>Relación de tablas, casi lsita para reemplazar en power bi</t>
   </si>
   <si>
@@ -619,9 +598,6 @@
   </si>
   <si>
     <t>AGROSTAT: Cítricos</t>
-  </si>
-  <si>
-    <t>Revisión y reenvio por correcciones</t>
   </si>
   <si>
     <r>
@@ -637,6 +613,15 @@
       </rPr>
       <t xml:space="preserve"> No hay avance a la fecha</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Control de calidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian uniendo DATOS </t>
+  </si>
+  <si>
+    <t>Listo. Revisión y vinculación al DATA Municipio</t>
   </si>
 </sst>
 </file>
@@ -823,125 +808,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1714,7 +1581,7 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="DATA" xr10:uid="{EA5B5809-CE40-4E8D-89BF-A75A3C2F7D2B}" cache="SegmentaciónDeDatos_DATA" caption="DATA" startItem="5" columnCount="5" style="SlicerStyleDark1" rowHeight="234950"/>
+  <slicer name="DATA" xr10:uid="{EA5B5809-CE40-4E8D-89BF-A75A3C2F7D2B}" cache="SegmentaciónDeDatos_DATA" caption="DATA" columnCount="5" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Estado" xr10:uid="{63FFA36A-C721-4EAB-A1BC-C1D855F7CC79}" cache="SegmentaciónDeDatos_Estado" caption="Estado" style="SlicerStyleDark5" rowHeight="234950"/>
   <slicer name="Etapa" xr10:uid="{BB91F2EC-DBEF-43E7-B0E6-D7CB3241652D}" cache="SegmentaciónDeDatos_Etapa" caption="Etapa" style="SlicerStyleDark2" rowHeight="234950"/>
   <slicer name="Responsable" xr10:uid="{6693E2D9-4459-43A0-B566-55BF44150663}" cache="SegmentaciónDeDatos_Responsable" caption="Responsable" columnCount="3" style="SlicerStyleDark6" rowHeight="234950"/>
@@ -1724,23 +1591,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EB199BD-82BD-4A43-BB9D-9A1EC2060DEE}" name="ESTADO_DATA" displayName="ESTADO_DATA" ref="B10:K76" totalsRowShown="0" dataDxfId="21">
-  <autoFilter ref="B10:K76" xr:uid="{1C14161C-48E9-495E-B654-DB7439BFBDC7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EB199BD-82BD-4A43-BB9D-9A1EC2060DEE}" name="ESTADO_DATA" displayName="ESTADO_DATA" ref="B10:K76" totalsRowShown="0" dataDxfId="10">
+  <autoFilter ref="B10:K76" xr:uid="{1C14161C-48E9-495E-B654-DB7439BFBDC7}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="DATAAGRO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B11:K70">
     <sortCondition descending="1" ref="H11:H70"/>
     <sortCondition ref="K11:K70"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B1E56A6B-4559-42C0-92A4-11ABCD2B7F41}" name="DATA" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{0190F04D-EF42-4001-91C0-B7870B705347}" name="Descripción Producto" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{21D2AA35-9318-424E-8A8F-73AA92D83F8B}" name="Observación" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{F28B55D7-A0B9-4960-8AB0-B7D294B2B468}" name="Etapa" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{F3595AF2-5604-4A83-86FF-D1BE0BEE1218}" name="Responsable" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{65182567-7893-4311-84C0-87959137B17B}" name="Estado" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{50879A1C-8E9F-459A-8797-7FC9C7A66068}" name="Actualizado" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{450C8B7E-016E-4613-9AF2-5D155DC06BA0}" name="Próxima Acción" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{6FF4081B-445E-4B32-8E04-89968D40C1B5}" name="Encargado" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{E6153ADB-B3FD-4437-9832-83AB4F7B157C}" name="Prioridad" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{B1E56A6B-4559-42C0-92A4-11ABCD2B7F41}" name="DATA" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{0190F04D-EF42-4001-91C0-B7870B705347}" name="Descripción Producto" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{21D2AA35-9318-424E-8A8F-73AA92D83F8B}" name="Observación" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{F28B55D7-A0B9-4960-8AB0-B7D294B2B468}" name="Etapa" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{F3595AF2-5604-4A83-86FF-D1BE0BEE1218}" name="Responsable" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{65182567-7893-4311-84C0-87959137B17B}" name="Estado" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{50879A1C-8E9F-459A-8797-7FC9C7A66068}" name="Actualizado" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{450C8B7E-016E-4613-9AF2-5D155DC06BA0}" name="Próxima Acción" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{6FF4081B-445E-4B32-8E04-89968D40C1B5}" name="Encargado" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{E6153ADB-B3FD-4437-9832-83AB4F7B157C}" name="Prioridad" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2046,8 +1919,8 @@
   <dimension ref="B5:K76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2093,16 +1966,16 @@
         <v>32</v>
       </c>
       <c r="I10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="K10" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
         <v>31</v>
       </c>
@@ -2125,16 +1998,16 @@
         <v>44173</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
         <v>40</v>
       </c>
@@ -2142,7 +2015,7 @@
         <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>52</v>
@@ -2154,16 +2027,14 @@
         <v>47</v>
       </c>
       <c r="H12" s="2">
-        <v>44173</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>129</v>
-      </c>
+        <v>44182</v>
+      </c>
+      <c r="I12" s="3"/>
       <c r="J12" s="11" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.35">
@@ -2174,7 +2045,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>51</v>
@@ -2189,13 +2060,13 @@
         <v>44179</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="24" x14ac:dyDescent="0.35">
@@ -2203,10 +2074,10 @@
         <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>51</v>
@@ -2215,22 +2086,22 @@
         <v>84</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H14" s="2">
         <v>44179</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
         <v>43</v>
       </c>
@@ -2238,7 +2109,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>51</v>
@@ -2250,19 +2121,19 @@
         <v>46</v>
       </c>
       <c r="H15" s="2">
-        <v>44173</v>
+        <v>44182</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>43</v>
       </c>
@@ -2270,7 +2141,7 @@
         <v>49</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>51</v>
@@ -2285,13 +2156,13 @@
         <v>44173</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
@@ -2299,10 +2170,10 @@
         <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>51</v>
@@ -2311,30 +2182,30 @@
         <v>84</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H17" s="2">
         <v>44179</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B18" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>73</v>
@@ -2349,16 +2220,16 @@
         <v>44173</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
         <v>39</v>
       </c>
@@ -2379,16 +2250,16 @@
         <v>44169</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
         <v>44</v>
       </c>
@@ -2403,30 +2274,30 @@
         <v>81</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H20" s="2">
         <v>44174</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>52</v>
@@ -2435,22 +2306,22 @@
         <v>87</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H21" s="2">
         <v>44180</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" s="14" t="s">
         <v>38</v>
       </c>
@@ -2473,13 +2344,13 @@
         <v>44169</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
@@ -2487,10 +2358,10 @@
         <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>51</v>
@@ -2505,16 +2376,16 @@
         <v>44179</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
@@ -2522,7 +2393,7 @@
         <v>17</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>51</v>
@@ -2537,25 +2408,23 @@
         <v>44180</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J24" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>176</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="13" t="s">
         <v>51</v>
       </c>
@@ -2563,22 +2432,22 @@
         <v>79</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H25" s="2">
-        <v>44180</v>
+        <v>44182</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" s="14" t="s">
         <v>31</v>
       </c>
@@ -2586,7 +2455,7 @@
         <v>18</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>51</v>
@@ -2601,16 +2470,16 @@
         <v>44180</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J26" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B27" s="14" t="s">
         <v>29</v>
       </c>
@@ -2618,7 +2487,7 @@
         <v>19</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>51</v>
@@ -2633,25 +2502,23 @@
         <v>44180</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J27" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>176</v>
-      </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="13" t="s">
         <v>51</v>
       </c>
@@ -2659,22 +2526,22 @@
         <v>78</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H28" s="2">
-        <v>44180</v>
+        <v>44182</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" s="14" t="s">
         <v>31</v>
       </c>
@@ -2682,7 +2549,7 @@
         <v>21</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>51</v>
@@ -2697,16 +2564,16 @@
         <v>44180</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J29" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" s="14" t="s">
         <v>29</v>
       </c>
@@ -2714,7 +2581,7 @@
         <v>22</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>51</v>
@@ -2729,25 +2596,23 @@
         <v>44180</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J30" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B31" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>176</v>
-      </c>
+      <c r="D31" s="3"/>
       <c r="E31" s="13" t="s">
         <v>51</v>
       </c>
@@ -2755,22 +2620,22 @@
         <v>81</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H31" s="2">
-        <v>44180</v>
+        <v>44182</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" s="14" t="s">
         <v>31</v>
       </c>
@@ -2778,7 +2643,7 @@
         <v>24</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>51</v>
@@ -2793,16 +2658,16 @@
         <v>44180</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J32" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" s="14" t="s">
         <v>31</v>
       </c>
@@ -2810,7 +2675,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>51</v>
@@ -2825,18 +2690,18 @@
         <v>44179</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J33" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>57</v>
@@ -2855,16 +2720,16 @@
         <v>44169</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J34" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B35" s="14" t="s">
         <v>40</v>
       </c>
@@ -2885,16 +2750,16 @@
         <v>44169</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J35" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" s="14" t="s">
         <v>40</v>
       </c>
@@ -2915,16 +2780,16 @@
         <v>44169</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J36" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" s="14" t="s">
         <v>36</v>
       </c>
@@ -2939,24 +2804,24 @@
         <v>78</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H37" s="2">
         <v>44180</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J37" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>64</v>
@@ -2969,22 +2834,22 @@
         <v>82</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H38" s="2">
         <v>44180</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J38" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" s="14" t="s">
         <v>44</v>
       </c>
@@ -2992,7 +2857,7 @@
         <v>72</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>73</v>
@@ -3007,22 +2872,22 @@
         <v>44174</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J39" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>51</v>
@@ -3037,13 +2902,13 @@
         <v>44180</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="24" x14ac:dyDescent="0.35">
@@ -3054,7 +2919,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>52</v>
@@ -3069,16 +2934,16 @@
         <v>44179</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J41" s="11" t="s">
         <v>84</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" s="14" t="s">
         <v>14</v>
       </c>
@@ -3088,22 +2953,22 @@
         <v>51</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H42" s="2">
         <v>44180</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="29" x14ac:dyDescent="0.35">
@@ -3129,13 +2994,13 @@
         <v>44169</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J43" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="60" x14ac:dyDescent="0.35">
@@ -3146,7 +3011,7 @@
         <v>54</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>52</v>
@@ -3161,18 +3026,18 @@
         <v>44179</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J44" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B45" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>55</v>
@@ -3185,24 +3050,24 @@
         <v>85</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H45" s="2">
         <v>44180</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J45" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B46" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>66</v>
@@ -3215,24 +3080,24 @@
         <v>77</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H46" s="2">
         <v>44180</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J46" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B47" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>70</v>
@@ -3245,22 +3110,22 @@
         <v>76</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H47" s="2">
         <v>44180</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J47" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B48" s="14" t="s">
         <v>37</v>
       </c>
@@ -3268,7 +3133,7 @@
         <v>63</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>73</v>
@@ -3283,16 +3148,16 @@
         <v>44180</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B49" s="14" t="s">
         <v>37</v>
       </c>
@@ -3300,7 +3165,7 @@
         <v>63</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>73</v>
@@ -3315,16 +3180,16 @@
         <v>44180</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J49" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B50" s="14" t="s">
         <v>37</v>
       </c>
@@ -3332,7 +3197,7 @@
         <v>63</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>73</v>
@@ -3347,24 +3212,24 @@
         <v>44180</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B51" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>52</v>
@@ -3373,22 +3238,22 @@
         <v>83</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H51" s="2">
         <v>44180</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J51" s="11" t="s">
         <v>83</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B52" s="14" t="s">
         <v>41</v>
       </c>
@@ -3396,7 +3261,7 @@
         <v>11</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>51</v>
@@ -3411,24 +3276,24 @@
         <v>44180</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J52" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B53" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>73</v>
@@ -3437,22 +3302,22 @@
         <v>87</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H53" s="2">
         <v>44180</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" ht="72" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="72" hidden="1" x14ac:dyDescent="0.35">
       <c r="B54" s="14" t="s">
         <v>44</v>
       </c>
@@ -3460,7 +3325,7 @@
         <v>62</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>51</v>
@@ -3475,16 +3340,16 @@
         <v>44174</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B55" s="14" t="s">
         <v>36</v>
       </c>
@@ -3497,22 +3362,22 @@
         <v>78</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H55" s="2">
         <v>44180</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B56" s="14" t="s">
         <v>37</v>
       </c>
@@ -3520,13 +3385,13 @@
         <v>63</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>51</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>46</v>
@@ -3535,16 +3400,16 @@
         <v>44180</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B57" s="14" t="s">
         <v>38</v>
       </c>
@@ -3552,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>51</v>
@@ -3567,16 +3432,16 @@
         <v>44180</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B58" s="14" t="s">
         <v>38</v>
       </c>
@@ -3591,22 +3456,22 @@
         <v>79</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H58" s="2">
         <v>44180</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B59" s="14" t="s">
         <v>38</v>
       </c>
@@ -3614,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>51</v>
@@ -3629,16 +3494,16 @@
         <v>44180</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B60" s="14" t="s">
         <v>38</v>
       </c>
@@ -3646,7 +3511,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>51</v>
@@ -3661,16 +3526,16 @@
         <v>44180</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B61" s="14" t="s">
         <v>38</v>
       </c>
@@ -3678,7 +3543,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>51</v>
@@ -3693,16 +3558,16 @@
         <v>44180</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B62" s="14" t="s">
         <v>39</v>
       </c>
@@ -3710,7 +3575,7 @@
         <v>6</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>51</v>
@@ -3725,16 +3590,16 @@
         <v>44180</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J62" s="11" t="s">
         <v>83</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B63" s="14" t="s">
         <v>39</v>
       </c>
@@ -3755,16 +3620,16 @@
         <v>44169</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J63" s="11" t="s">
         <v>83</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B64" s="14" t="s">
         <v>39</v>
       </c>
@@ -3776,7 +3641,7 @@
         <v>51</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>46</v>
@@ -3785,16 +3650,16 @@
         <v>44169</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B65" s="14" t="s">
         <v>40</v>
       </c>
@@ -3802,7 +3667,7 @@
         <v>10</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>51</v>
@@ -3811,22 +3676,22 @@
         <v>86</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H65" s="2">
         <v>44180</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J65" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" ht="60" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="B66" s="14" t="s">
         <v>29</v>
       </c>
@@ -3834,7 +3699,7 @@
         <v>61</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>52</v>
@@ -3849,24 +3714,24 @@
         <v>44179</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J66" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" ht="48" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" ht="48" hidden="1" x14ac:dyDescent="0.35">
       <c r="B67" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>73</v>
@@ -3875,22 +3740,22 @@
         <v>79</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H67" s="2">
         <v>44180</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J67" s="11" t="s">
         <v>79</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B68" s="14" t="s">
         <v>45</v>
       </c>
@@ -3902,22 +3767,22 @@
         <v>51</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H68" s="2">
         <v>44173</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="36" x14ac:dyDescent="0.35">
@@ -3928,7 +3793,7 @@
         <v>58</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>52</v>
@@ -3937,30 +3802,30 @@
         <v>84</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H69" s="2">
         <v>44180</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J69" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" ht="36" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="B70" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>51</v>
@@ -3969,31 +3834,29 @@
         <v>78</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H70" s="2">
         <v>44180</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B71" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>170</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="D71" s="3"/>
       <c r="E71" s="13" t="s">
         <v>51</v>
       </c>
@@ -4001,30 +3864,30 @@
         <v>83</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="H71" s="2">
-        <v>44180</v>
+        <v>44182</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="J71" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B72" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>52</v>
@@ -4033,30 +3896,30 @@
         <v>78</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H72" s="2">
         <v>44180</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J72" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B73" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>51</v>
@@ -4065,19 +3928,19 @@
         <v>82</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H73" s="2">
         <v>44179</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J73" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.35">
@@ -4085,31 +3948,31 @@
         <v>42</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>51</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H74" s="2">
         <v>44179</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J74" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.35">
@@ -4117,10 +3980,10 @@
         <v>42</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>51</v>
@@ -4135,13 +3998,13 @@
         <v>44179</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.35">
@@ -4149,10 +4012,10 @@
         <v>42</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>51</v>
@@ -4167,50 +4030,50 @@
         <v>44181</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11:G76">
-    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
       <formula>"Cerrado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
       <formula>"En Desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>"No Iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
       <formula>"Listo!"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"Stand by"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Stand by"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K76">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"NULA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"BAJA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"MEDIA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"ALTA"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/En Ejecución.xlsx
+++ b/En Ejecución.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49584903-094B-4BC9-B766-C44FD482527B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9918ED-B826-42F9-9C93-6269CBEDA907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C4956387-E0A6-48A1-85D7-BBE5A3DDA6FD}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="183">
   <si>
     <t xml:space="preserve">Urgencias </t>
   </si>
@@ -400,9 +400,6 @@
   </si>
   <si>
     <t>Estadísticas de Incendios para Chile</t>
-  </si>
-  <si>
-    <t>Actualizar datos y estructurar Power BI</t>
   </si>
   <si>
     <t>Seguimiento</t>
@@ -546,9 +543,6 @@
     <t xml:space="preserve">Continuar con el año 2017. </t>
   </si>
   <si>
-    <t>Solicitud de PPt guia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reyes subio información según lo solicitado en las ultimas VC </t>
   </si>
   <si>
@@ -591,30 +585,12 @@
     <t>A la espera de terminar género</t>
   </si>
   <si>
-    <t>Elaboración Power Bi</t>
-  </si>
-  <si>
     <t>AGROSTAT: Papa</t>
   </si>
   <si>
     <t>AGROSTAT: Cítricos</t>
   </si>
   <si>
-    <r>
-      <t>Borrador en Power BI para año 2019.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> No hay avance a la fecha</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Control de calidad </t>
   </si>
   <si>
@@ -622,6 +598,48 @@
   </si>
   <si>
     <t>Listo. Revisión y vinculación al DATA Municipio</t>
+  </si>
+  <si>
+    <t>DATA VIVIENDA</t>
+  </si>
+  <si>
+    <t>Calidad de viviendas urbanas</t>
+  </si>
+  <si>
+    <t>Indice de calidad de Vida urbana 2017-2018-2019</t>
+  </si>
+  <si>
+    <t>Indice de calidad de Vida urbana 2017</t>
+  </si>
+  <si>
+    <t>Indice de calidad de Vida urbana 2018</t>
+  </si>
+  <si>
+    <t>Viables o no?</t>
+  </si>
+  <si>
+    <t>Cambio de plataforma de ArcGis</t>
+  </si>
+  <si>
+    <t>En diseño y elaboración del Power Bi</t>
+  </si>
+  <si>
+    <t>Plataforma de exportaciones e importaciones</t>
+  </si>
+  <si>
+    <t>Lista y enviada ppt guia</t>
+  </si>
+  <si>
+    <t>Sistematización BD</t>
+  </si>
+  <si>
+    <t>Consulta con informáticos</t>
+  </si>
+  <si>
+    <t>Envío de plantilla</t>
+  </si>
+  <si>
+    <t>BD Género Honduras</t>
   </si>
 </sst>
 </file>
@@ -808,7 +826,125 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1581,7 +1717,7 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="DATA" xr10:uid="{EA5B5809-CE40-4E8D-89BF-A75A3C2F7D2B}" cache="SegmentaciónDeDatos_DATA" caption="DATA" columnCount="5" style="SlicerStyleDark1" rowHeight="234950"/>
+  <slicer name="DATA" xr10:uid="{EA5B5809-CE40-4E8D-89BF-A75A3C2F7D2B}" cache="SegmentaciónDeDatos_DATA" caption="DATA" startItem="5" columnCount="5" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Estado" xr10:uid="{63FFA36A-C721-4EAB-A1BC-C1D855F7CC79}" cache="SegmentaciónDeDatos_Estado" caption="Estado" style="SlicerStyleDark5" rowHeight="234950"/>
   <slicer name="Etapa" xr10:uid="{BB91F2EC-DBEF-43E7-B0E6-D7CB3241652D}" cache="SegmentaciónDeDatos_Etapa" caption="Etapa" style="SlicerStyleDark2" rowHeight="234950"/>
   <slicer name="Responsable" xr10:uid="{6693E2D9-4459-43A0-B566-55BF44150663}" cache="SegmentaciónDeDatos_Responsable" caption="Responsable" columnCount="3" style="SlicerStyleDark6" rowHeight="234950"/>
@@ -1591,29 +1727,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EB199BD-82BD-4A43-BB9D-9A1EC2060DEE}" name="ESTADO_DATA" displayName="ESTADO_DATA" ref="B10:K76" totalsRowShown="0" dataDxfId="10">
-  <autoFilter ref="B10:K76" xr:uid="{1C14161C-48E9-495E-B654-DB7439BFBDC7}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="DATAAGRO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EB199BD-82BD-4A43-BB9D-9A1EC2060DEE}" name="ESTADO_DATA" displayName="ESTADO_DATA" ref="B10:K81" totalsRowShown="0" dataDxfId="21">
+  <autoFilter ref="B10:K81" xr:uid="{1C14161C-48E9-495E-B654-DB7439BFBDC7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B11:K70">
     <sortCondition descending="1" ref="H11:H70"/>
     <sortCondition ref="K11:K70"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B1E56A6B-4559-42C0-92A4-11ABCD2B7F41}" name="DATA" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{0190F04D-EF42-4001-91C0-B7870B705347}" name="Descripción Producto" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{21D2AA35-9318-424E-8A8F-73AA92D83F8B}" name="Observación" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{F28B55D7-A0B9-4960-8AB0-B7D294B2B468}" name="Etapa" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{F3595AF2-5604-4A83-86FF-D1BE0BEE1218}" name="Responsable" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{65182567-7893-4311-84C0-87959137B17B}" name="Estado" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{50879A1C-8E9F-459A-8797-7FC9C7A66068}" name="Actualizado" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{450C8B7E-016E-4613-9AF2-5D155DC06BA0}" name="Próxima Acción" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{6FF4081B-445E-4B32-8E04-89968D40C1B5}" name="Encargado" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{E6153ADB-B3FD-4437-9832-83AB4F7B157C}" name="Prioridad" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B1E56A6B-4559-42C0-92A4-11ABCD2B7F41}" name="DATA" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{0190F04D-EF42-4001-91C0-B7870B705347}" name="Descripción Producto" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{21D2AA35-9318-424E-8A8F-73AA92D83F8B}" name="Observación" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{F28B55D7-A0B9-4960-8AB0-B7D294B2B468}" name="Etapa" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{F3595AF2-5604-4A83-86FF-D1BE0BEE1218}" name="Responsable" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{65182567-7893-4311-84C0-87959137B17B}" name="Estado" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{50879A1C-8E9F-459A-8797-7FC9C7A66068}" name="Actualizado" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{450C8B7E-016E-4613-9AF2-5D155DC06BA0}" name="Próxima Acción" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{6FF4081B-445E-4B32-8E04-89968D40C1B5}" name="Encargado" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{E6153ADB-B3FD-4437-9832-83AB4F7B157C}" name="Prioridad" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1916,11 +2046,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF86AB94-797D-4D76-B761-37CD00A9A61A}">
-  <dimension ref="B5:K76"/>
+  <dimension ref="B5:K81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13:C13"/>
+      <pane ySplit="10" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1975,7 +2105,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
         <v>31</v>
       </c>
@@ -1998,7 +2128,7 @@
         <v>44173</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>93</v>
@@ -2007,7 +2137,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
         <v>40</v>
       </c>
@@ -2015,7 +2145,7 @@
         <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>52</v>
@@ -2045,7 +2175,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>51</v>
@@ -2060,7 +2190,7 @@
         <v>44179</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>94</v>
@@ -2077,7 +2207,7 @@
         <v>114</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>51</v>
@@ -2092,7 +2222,7 @@
         <v>44179</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>86</v>
@@ -2101,7 +2231,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
         <v>43</v>
       </c>
@@ -2109,7 +2239,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>51</v>
@@ -2124,7 +2254,7 @@
         <v>44182</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>94</v>
@@ -2133,7 +2263,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>43</v>
       </c>
@@ -2170,10 +2300,10 @@
         <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>51</v>
@@ -2188,7 +2318,7 @@
         <v>44179</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>86</v>
@@ -2197,7 +2327,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B18" s="14" t="s">
         <v>101</v>
       </c>
@@ -2220,7 +2350,7 @@
         <v>44173</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>94</v>
@@ -2229,7 +2359,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
         <v>39</v>
       </c>
@@ -2250,7 +2380,7 @@
         <v>44169</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>94</v>
@@ -2259,7 +2389,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
         <v>44</v>
       </c>
@@ -2280,7 +2410,7 @@
         <v>44174</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>94</v>
@@ -2289,7 +2419,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B21" s="14" t="s">
         <v>97</v>
       </c>
@@ -2297,7 +2427,7 @@
         <v>59</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>52</v>
@@ -2312,7 +2442,7 @@
         <v>44180</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>94</v>
@@ -2321,7 +2451,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B22" s="14" t="s">
         <v>38</v>
       </c>
@@ -2344,10 +2474,10 @@
         <v>44169</v>
       </c>
       <c r="I22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J22" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>106</v>
@@ -2358,10 +2488,10 @@
         <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>51</v>
@@ -2376,7 +2506,7 @@
         <v>44179</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J23" s="11" t="s">
         <v>94</v>
@@ -2385,7 +2515,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
@@ -2393,7 +2523,7 @@
         <v>17</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>51</v>
@@ -2405,19 +2535,19 @@
         <v>47</v>
       </c>
       <c r="H24" s="2">
-        <v>44180</v>
+        <v>44185</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25" s="14" t="s">
         <v>30</v>
       </c>
@@ -2438,7 +2568,7 @@
         <v>44182</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J25" s="11" t="s">
         <v>86</v>
@@ -2447,7 +2577,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B26" s="14" t="s">
         <v>31</v>
       </c>
@@ -2455,7 +2585,7 @@
         <v>18</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>51</v>
@@ -2470,7 +2600,7 @@
         <v>44180</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J26" s="11" t="s">
         <v>86</v>
@@ -2479,7 +2609,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B27" s="14" t="s">
         <v>29</v>
       </c>
@@ -2487,7 +2617,7 @@
         <v>19</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>51</v>
@@ -2499,19 +2629,19 @@
         <v>47</v>
       </c>
       <c r="H27" s="2">
-        <v>44180</v>
+        <v>44185</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="K27" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28" s="14" t="s">
         <v>30</v>
       </c>
@@ -2532,7 +2662,7 @@
         <v>44182</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J28" s="11" t="s">
         <v>86</v>
@@ -2541,7 +2671,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B29" s="14" t="s">
         <v>31</v>
       </c>
@@ -2549,7 +2679,7 @@
         <v>21</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>51</v>
@@ -2564,7 +2694,7 @@
         <v>44180</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J29" s="11" t="s">
         <v>86</v>
@@ -2573,7 +2703,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B30" s="14" t="s">
         <v>29</v>
       </c>
@@ -2581,7 +2711,7 @@
         <v>22</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>51</v>
@@ -2593,19 +2723,19 @@
         <v>47</v>
       </c>
       <c r="H30" s="2">
-        <v>44180</v>
+        <v>44185</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="K30" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B31" s="14" t="s">
         <v>30</v>
       </c>
@@ -2626,7 +2756,7 @@
         <v>44182</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J31" s="11" t="s">
         <v>86</v>
@@ -2635,7 +2765,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B32" s="14" t="s">
         <v>31</v>
       </c>
@@ -2643,7 +2773,7 @@
         <v>24</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>51</v>
@@ -2658,7 +2788,7 @@
         <v>44180</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J32" s="11" t="s">
         <v>86</v>
@@ -2667,7 +2797,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B33" s="14" t="s">
         <v>31</v>
       </c>
@@ -2675,7 +2805,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>51</v>
@@ -2690,7 +2820,7 @@
         <v>44179</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J33" s="11" t="s">
         <v>86</v>
@@ -2699,7 +2829,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B34" s="14" t="s">
         <v>100</v>
       </c>
@@ -2720,7 +2850,7 @@
         <v>44169</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J34" s="11" t="s">
         <v>86</v>
@@ -2729,7 +2859,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B35" s="14" t="s">
         <v>40</v>
       </c>
@@ -2750,7 +2880,7 @@
         <v>44169</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J35" s="11" t="s">
         <v>86</v>
@@ -2759,7 +2889,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B36" s="14" t="s">
         <v>40</v>
       </c>
@@ -2780,7 +2910,7 @@
         <v>44169</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J36" s="11" t="s">
         <v>86</v>
@@ -2789,7 +2919,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B37" s="14" t="s">
         <v>36</v>
       </c>
@@ -2804,13 +2934,13 @@
         <v>78</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H37" s="2">
         <v>44180</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J37" s="11" t="s">
         <v>86</v>
@@ -2819,7 +2949,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B38" s="14" t="s">
         <v>103</v>
       </c>
@@ -2834,13 +2964,13 @@
         <v>82</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H38" s="2">
         <v>44180</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J38" s="11" t="s">
         <v>86</v>
@@ -2849,7 +2979,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B39" s="14" t="s">
         <v>44</v>
       </c>
@@ -2857,7 +2987,7 @@
         <v>72</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>73</v>
@@ -2872,7 +3002,7 @@
         <v>44174</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J39" s="11" t="s">
         <v>86</v>
@@ -2881,13 +3011,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:11" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="D40" s="3" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>51</v>
@@ -2899,10 +3031,10 @@
         <v>46</v>
       </c>
       <c r="H40" s="2">
-        <v>44180</v>
+        <v>44185</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J40" s="11" t="s">
         <v>94</v>
@@ -2919,7 +3051,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>52</v>
@@ -2934,7 +3066,7 @@
         <v>44179</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J41" s="11" t="s">
         <v>84</v>
@@ -2943,7 +3075,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B42" s="14" t="s">
         <v>14</v>
       </c>
@@ -2953,19 +3085,19 @@
         <v>51</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H42" s="2">
         <v>44180</v>
       </c>
       <c r="I42" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J42" s="11" t="s">
         <v>124</v>
-      </c>
-      <c r="J42" s="11" t="s">
-        <v>125</v>
       </c>
       <c r="K42" s="9" t="s">
         <v>107</v>
@@ -2994,7 +3126,7 @@
         <v>44169</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J43" s="11" t="s">
         <v>86</v>
@@ -3011,7 +3143,7 @@
         <v>54</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>52</v>
@@ -3026,7 +3158,7 @@
         <v>44179</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J44" s="11" t="s">
         <v>86</v>
@@ -3035,7 +3167,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B45" s="14" t="s">
         <v>98</v>
       </c>
@@ -3050,13 +3182,13 @@
         <v>85</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H45" s="2">
         <v>44180</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J45" s="11" t="s">
         <v>86</v>
@@ -3065,7 +3197,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B46" s="14" t="s">
         <v>102</v>
       </c>
@@ -3080,13 +3212,13 @@
         <v>77</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H46" s="2">
         <v>44180</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J46" s="11" t="s">
         <v>86</v>
@@ -3095,7 +3227,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B47" s="14" t="s">
         <v>103</v>
       </c>
@@ -3110,13 +3242,13 @@
         <v>76</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H47" s="2">
         <v>44180</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J47" s="11" t="s">
         <v>86</v>
@@ -3125,7 +3257,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B48" s="14" t="s">
         <v>37</v>
       </c>
@@ -3133,7 +3265,7 @@
         <v>63</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>73</v>
@@ -3148,7 +3280,7 @@
         <v>44180</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J48" s="11" t="s">
         <v>86</v>
@@ -3157,7 +3289,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B49" s="14" t="s">
         <v>37</v>
       </c>
@@ -3165,7 +3297,7 @@
         <v>63</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>73</v>
@@ -3180,7 +3312,7 @@
         <v>44180</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J49" s="11" t="s">
         <v>86</v>
@@ -3189,7 +3321,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B50" s="14" t="s">
         <v>37</v>
       </c>
@@ -3197,7 +3329,7 @@
         <v>63</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>73</v>
@@ -3212,7 +3344,7 @@
         <v>44180</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>86</v>
@@ -3221,7 +3353,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B51" s="14" t="s">
         <v>96</v>
       </c>
@@ -3238,7 +3370,7 @@
         <v>83</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H51" s="2">
         <v>44180</v>
@@ -3253,7 +3385,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B52" s="14" t="s">
         <v>41</v>
       </c>
@@ -3261,7 +3393,7 @@
         <v>11</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>51</v>
@@ -3276,7 +3408,7 @@
         <v>44180</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J52" s="11" t="s">
         <v>86</v>
@@ -3285,7 +3417,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B53" s="14" t="s">
         <v>97</v>
       </c>
@@ -3293,7 +3425,7 @@
         <v>60</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>73</v>
@@ -3308,7 +3440,7 @@
         <v>44180</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J53" s="11" t="s">
         <v>94</v>
@@ -3317,7 +3449,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="72" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:11" ht="72" x14ac:dyDescent="0.35">
       <c r="B54" s="14" t="s">
         <v>44</v>
       </c>
@@ -3325,7 +3457,7 @@
         <v>62</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>51</v>
@@ -3340,7 +3472,7 @@
         <v>44174</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J54" s="11" t="s">
         <v>94</v>
@@ -3349,7 +3481,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B55" s="14" t="s">
         <v>36</v>
       </c>
@@ -3362,13 +3494,13 @@
         <v>78</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H55" s="2">
         <v>44180</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J55" s="11" t="s">
         <v>94</v>
@@ -3377,7 +3509,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B56" s="14" t="s">
         <v>37</v>
       </c>
@@ -3385,7 +3517,7 @@
         <v>63</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>51</v>
@@ -3394,14 +3526,12 @@
         <v>94</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" s="2">
-        <v>44180</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>115</v>
-      </c>
+        <v>44185</v>
+      </c>
+      <c r="I56" s="3"/>
       <c r="J56" s="11" t="s">
         <v>94</v>
       </c>
@@ -3409,7 +3539,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B57" s="14" t="s">
         <v>38</v>
       </c>
@@ -3417,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>51</v>
@@ -3432,7 +3562,7 @@
         <v>44180</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J57" s="11" t="s">
         <v>94</v>
@@ -3441,7 +3571,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B58" s="14" t="s">
         <v>38</v>
       </c>
@@ -3462,7 +3592,7 @@
         <v>44180</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J58" s="11" t="s">
         <v>94</v>
@@ -3471,7 +3601,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B59" s="14" t="s">
         <v>38</v>
       </c>
@@ -3479,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>51</v>
@@ -3494,7 +3624,7 @@
         <v>44180</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J59" s="11" t="s">
         <v>94</v>
@@ -3503,7 +3633,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B60" s="14" t="s">
         <v>38</v>
       </c>
@@ -3511,7 +3641,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>51</v>
@@ -3526,7 +3656,7 @@
         <v>44180</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J60" s="11" t="s">
         <v>94</v>
@@ -3535,7 +3665,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B61" s="14" t="s">
         <v>38</v>
       </c>
@@ -3543,7 +3673,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>51</v>
@@ -3558,7 +3688,7 @@
         <v>44180</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J61" s="11" t="s">
         <v>94</v>
@@ -3567,7 +3697,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B62" s="14" t="s">
         <v>39</v>
       </c>
@@ -3575,7 +3705,7 @@
         <v>6</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>51</v>
@@ -3590,7 +3720,7 @@
         <v>44180</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J62" s="11" t="s">
         <v>83</v>
@@ -3599,7 +3729,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B63" s="14" t="s">
         <v>39</v>
       </c>
@@ -3620,7 +3750,7 @@
         <v>44169</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J63" s="11" t="s">
         <v>83</v>
@@ -3629,7 +3759,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B64" s="14" t="s">
         <v>39</v>
       </c>
@@ -3641,7 +3771,7 @@
         <v>51</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>46</v>
@@ -3650,7 +3780,7 @@
         <v>44169</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J64" s="11" t="s">
         <v>94</v>
@@ -3659,7 +3789,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B65" s="14" t="s">
         <v>40</v>
       </c>
@@ -3667,7 +3797,7 @@
         <v>10</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>51</v>
@@ -3676,13 +3806,13 @@
         <v>86</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H65" s="2">
         <v>44180</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J65" s="11" t="s">
         <v>86</v>
@@ -3691,7 +3821,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="60" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:11" ht="60" x14ac:dyDescent="0.35">
       <c r="B66" s="14" t="s">
         <v>29</v>
       </c>
@@ -3699,7 +3829,7 @@
         <v>61</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>52</v>
@@ -3714,7 +3844,7 @@
         <v>44179</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J66" s="11" t="s">
         <v>86</v>
@@ -3723,7 +3853,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="2:11" ht="48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:11" ht="48" x14ac:dyDescent="0.35">
       <c r="B67" s="14" t="s">
         <v>99</v>
       </c>
@@ -3731,7 +3861,7 @@
         <v>69</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>73</v>
@@ -3740,13 +3870,13 @@
         <v>79</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H67" s="2">
         <v>44180</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J67" s="11" t="s">
         <v>79</v>
@@ -3755,7 +3885,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B68" s="14" t="s">
         <v>45</v>
       </c>
@@ -3776,7 +3906,7 @@
         <v>44173</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J68" s="11" t="s">
         <v>94</v>
@@ -3808,16 +3938,16 @@
         <v>44180</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J69" s="11" t="s">
         <v>86</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" ht="36" hidden="1" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" ht="36" x14ac:dyDescent="0.35">
       <c r="B70" s="14" t="s">
         <v>99</v>
       </c>
@@ -3825,7 +3955,7 @@
         <v>68</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>51</v>
@@ -3834,13 +3964,13 @@
         <v>78</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H70" s="2">
         <v>44180</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J70" s="11" t="s">
         <v>94</v>
@@ -3849,12 +3979,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B71" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="13" t="s">
@@ -3870,7 +4000,7 @@
         <v>44182</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J71" s="11" t="s">
         <v>86</v>
@@ -3879,7 +4009,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:11" ht="24" x14ac:dyDescent="0.35">
       <c r="B72" s="14" t="s">
         <v>99</v>
       </c>
@@ -3887,7 +4017,7 @@
         <v>68</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>52</v>
@@ -3896,13 +4026,13 @@
         <v>78</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H72" s="2">
         <v>44180</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J72" s="11" t="s">
         <v>86</v>
@@ -3911,15 +4041,15 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B73" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>51</v>
@@ -3934,7 +4064,7 @@
         <v>44179</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J73" s="11" t="s">
         <v>86</v>
@@ -3948,10 +4078,10 @@
         <v>42</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D74" s="16" t="s">
         <v>141</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>142</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>51</v>
@@ -3966,7 +4096,7 @@
         <v>44179</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J74" s="11" t="s">
         <v>86</v>
@@ -3980,10 +4110,10 @@
         <v>42</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>51</v>
@@ -3998,7 +4128,7 @@
         <v>44179</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J75" s="11" t="s">
         <v>94</v>
@@ -4012,10 +4142,10 @@
         <v>42</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>51</v>
@@ -4030,7 +4160,7 @@
         <v>44181</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J76" s="11" t="s">
         <v>94</v>
@@ -4039,45 +4169,205 @@
         <v>107</v>
       </c>
     </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B77" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H77" s="2">
+        <v>44185</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B78" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H78" s="2">
+        <v>44185</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B79" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H79" s="2">
+        <v>44185</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B80" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H80" s="2">
+        <v>44185</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B81" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H81" s="2">
+        <v>44185</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G11:G76">
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
+  <conditionalFormatting sqref="G11:G81">
+    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
       <formula>"Cerrado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
       <formula>"En Desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
       <formula>"No Iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
       <formula>"Listo!"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
       <formula>"Stand by"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>"Stand by"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K76">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+  <conditionalFormatting sqref="K11:K81">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"NULA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"BAJA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>"MEDIA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>"ALTA"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H76">
+  <conditionalFormatting sqref="H11:H81">
     <cfRule type="iconSet" priority="23">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/En Ejecución.xlsx
+++ b/En Ejecución.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9918ED-B826-42F9-9C93-6269CBEDA907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE86531-6ABC-4013-AB38-DF3EB44825AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C4956387-E0A6-48A1-85D7-BBE5A3DDA6FD}"/>
   </bookViews>
@@ -826,125 +826,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1717,7 +1599,7 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="DATA" xr10:uid="{EA5B5809-CE40-4E8D-89BF-A75A3C2F7D2B}" cache="SegmentaciónDeDatos_DATA" caption="DATA" startItem="5" columnCount="5" style="SlicerStyleDark1" rowHeight="234950"/>
+  <slicer name="DATA" xr10:uid="{EA5B5809-CE40-4E8D-89BF-A75A3C2F7D2B}" cache="SegmentaciónDeDatos_DATA" caption="DATA" columnCount="5" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Estado" xr10:uid="{63FFA36A-C721-4EAB-A1BC-C1D855F7CC79}" cache="SegmentaciónDeDatos_Estado" caption="Estado" style="SlicerStyleDark5" rowHeight="234950"/>
   <slicer name="Etapa" xr10:uid="{BB91F2EC-DBEF-43E7-B0E6-D7CB3241652D}" cache="SegmentaciónDeDatos_Etapa" caption="Etapa" style="SlicerStyleDark2" rowHeight="234950"/>
   <slicer name="Responsable" xr10:uid="{6693E2D9-4459-43A0-B566-55BF44150663}" cache="SegmentaciónDeDatos_Responsable" caption="Responsable" columnCount="3" style="SlicerStyleDark6" rowHeight="234950"/>
@@ -1727,23 +1609,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EB199BD-82BD-4A43-BB9D-9A1EC2060DEE}" name="ESTADO_DATA" displayName="ESTADO_DATA" ref="B10:K81" totalsRowShown="0" dataDxfId="21">
-  <autoFilter ref="B10:K81" xr:uid="{1C14161C-48E9-495E-B654-DB7439BFBDC7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EB199BD-82BD-4A43-BB9D-9A1EC2060DEE}" name="ESTADO_DATA" displayName="ESTADO_DATA" ref="B10:K81" totalsRowShown="0" dataDxfId="10">
+  <autoFilter ref="B10:K81" xr:uid="{1C14161C-48E9-495E-B654-DB7439BFBDC7}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="DATARIESGO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B11:K70">
     <sortCondition descending="1" ref="H11:H70"/>
     <sortCondition ref="K11:K70"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B1E56A6B-4559-42C0-92A4-11ABCD2B7F41}" name="DATA" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{0190F04D-EF42-4001-91C0-B7870B705347}" name="Descripción Producto" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{21D2AA35-9318-424E-8A8F-73AA92D83F8B}" name="Observación" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{F28B55D7-A0B9-4960-8AB0-B7D294B2B468}" name="Etapa" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{F3595AF2-5604-4A83-86FF-D1BE0BEE1218}" name="Responsable" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{65182567-7893-4311-84C0-87959137B17B}" name="Estado" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{50879A1C-8E9F-459A-8797-7FC9C7A66068}" name="Actualizado" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{450C8B7E-016E-4613-9AF2-5D155DC06BA0}" name="Próxima Acción" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{6FF4081B-445E-4B32-8E04-89968D40C1B5}" name="Encargado" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{E6153ADB-B3FD-4437-9832-83AB4F7B157C}" name="Prioridad" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{B1E56A6B-4559-42C0-92A4-11ABCD2B7F41}" name="DATA" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{0190F04D-EF42-4001-91C0-B7870B705347}" name="Descripción Producto" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{21D2AA35-9318-424E-8A8F-73AA92D83F8B}" name="Observación" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{F28B55D7-A0B9-4960-8AB0-B7D294B2B468}" name="Etapa" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{F3595AF2-5604-4A83-86FF-D1BE0BEE1218}" name="Responsable" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{65182567-7893-4311-84C0-87959137B17B}" name="Estado" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{50879A1C-8E9F-459A-8797-7FC9C7A66068}" name="Actualizado" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{450C8B7E-016E-4613-9AF2-5D155DC06BA0}" name="Próxima Acción" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{6FF4081B-445E-4B32-8E04-89968D40C1B5}" name="Encargado" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{E6153ADB-B3FD-4437-9832-83AB4F7B157C}" name="Prioridad" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2049,8 +1937,8 @@
   <dimension ref="B5:K81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H89" sqref="H89"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2105,7 +1993,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B11" s="14" t="s">
         <v>31</v>
       </c>
@@ -2137,7 +2025,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
         <v>40</v>
       </c>
@@ -2167,7 +2055,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>42</v>
       </c>
@@ -2199,7 +2087,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
         <v>42</v>
       </c>
@@ -2231,7 +2119,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
         <v>43</v>
       </c>
@@ -2263,7 +2151,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>43</v>
       </c>
@@ -2295,7 +2183,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
         <v>42</v>
       </c>
@@ -2327,7 +2215,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B18" s="14" t="s">
         <v>101</v>
       </c>
@@ -2359,7 +2247,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
         <v>39</v>
       </c>
@@ -2389,7 +2277,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
         <v>44</v>
       </c>
@@ -2419,7 +2307,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" s="14" t="s">
         <v>97</v>
       </c>
@@ -2451,7 +2339,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" s="14" t="s">
         <v>38</v>
       </c>
@@ -2483,7 +2371,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" s="14" t="s">
         <v>42</v>
       </c>
@@ -2515,7 +2403,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
@@ -2577,7 +2465,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" s="14" t="s">
         <v>31</v>
       </c>
@@ -2609,7 +2497,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B27" s="14" t="s">
         <v>29</v>
       </c>
@@ -2671,7 +2559,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" s="14" t="s">
         <v>31</v>
       </c>
@@ -2703,7 +2591,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" s="14" t="s">
         <v>29</v>
       </c>
@@ -2765,7 +2653,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" s="14" t="s">
         <v>31</v>
       </c>
@@ -2797,7 +2685,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" s="14" t="s">
         <v>31</v>
       </c>
@@ -2829,7 +2717,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" s="14" t="s">
         <v>100</v>
       </c>
@@ -2859,7 +2747,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B35" s="14" t="s">
         <v>40</v>
       </c>
@@ -2889,7 +2777,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" s="14" t="s">
         <v>40</v>
       </c>
@@ -2919,7 +2807,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" s="14" t="s">
         <v>36</v>
       </c>
@@ -2949,7 +2837,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" s="14" t="s">
         <v>103</v>
       </c>
@@ -2979,7 +2867,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" s="14" t="s">
         <v>44</v>
       </c>
@@ -3011,7 +2899,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:11" ht="18.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="14" t="s">
         <v>35</v>
       </c>
@@ -3043,7 +2931,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" s="14" t="s">
         <v>42</v>
       </c>
@@ -3075,7 +2963,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" s="14" t="s">
         <v>14</v>
       </c>
@@ -3103,7 +2991,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" s="14" t="s">
         <v>42</v>
       </c>
@@ -3135,7 +3023,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="60" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:11" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="B44" s="14" t="s">
         <v>42</v>
       </c>
@@ -3167,7 +3055,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B45" s="14" t="s">
         <v>98</v>
       </c>
@@ -3197,7 +3085,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B46" s="14" t="s">
         <v>102</v>
       </c>
@@ -3227,7 +3115,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B47" s="14" t="s">
         <v>103</v>
       </c>
@@ -3257,7 +3145,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B48" s="14" t="s">
         <v>37</v>
       </c>
@@ -3289,7 +3177,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B49" s="14" t="s">
         <v>37</v>
       </c>
@@ -3321,7 +3209,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B50" s="14" t="s">
         <v>37</v>
       </c>
@@ -3353,7 +3241,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B51" s="14" t="s">
         <v>96</v>
       </c>
@@ -3385,7 +3273,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B52" s="14" t="s">
         <v>41</v>
       </c>
@@ -3417,7 +3305,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B53" s="14" t="s">
         <v>97</v>
       </c>
@@ -3449,7 +3337,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="72" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:11" ht="72" hidden="1" x14ac:dyDescent="0.35">
       <c r="B54" s="14" t="s">
         <v>44</v>
       </c>
@@ -3481,7 +3369,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B55" s="14" t="s">
         <v>36</v>
       </c>
@@ -3509,7 +3397,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B56" s="14" t="s">
         <v>37</v>
       </c>
@@ -3539,7 +3427,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B57" s="14" t="s">
         <v>38</v>
       </c>
@@ -3571,7 +3459,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B58" s="14" t="s">
         <v>38</v>
       </c>
@@ -3601,7 +3489,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B59" s="14" t="s">
         <v>38</v>
       </c>
@@ -3633,7 +3521,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B60" s="14" t="s">
         <v>38</v>
       </c>
@@ -3665,7 +3553,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B61" s="14" t="s">
         <v>38</v>
       </c>
@@ -3697,7 +3585,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B62" s="14" t="s">
         <v>39</v>
       </c>
@@ -3729,7 +3617,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B63" s="14" t="s">
         <v>39</v>
       </c>
@@ -3759,7 +3647,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B64" s="14" t="s">
         <v>39</v>
       </c>
@@ -3789,7 +3677,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B65" s="14" t="s">
         <v>40</v>
       </c>
@@ -3821,7 +3709,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="60" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:11" ht="60" hidden="1" x14ac:dyDescent="0.35">
       <c r="B66" s="14" t="s">
         <v>29</v>
       </c>
@@ -3853,7 +3741,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="2:11" ht="48" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:11" ht="48" hidden="1" x14ac:dyDescent="0.35">
       <c r="B67" s="14" t="s">
         <v>99</v>
       </c>
@@ -3885,7 +3773,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B68" s="14" t="s">
         <v>45</v>
       </c>
@@ -3915,7 +3803,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="2:11" ht="36" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:11" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="B69" s="14" t="s">
         <v>42</v>
       </c>
@@ -3947,7 +3835,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="2:11" ht="36" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:11" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="B70" s="14" t="s">
         <v>99</v>
       </c>
@@ -4009,7 +3897,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="2:11" ht="24" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:11" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="B72" s="14" t="s">
         <v>99</v>
       </c>
@@ -4041,7 +3929,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B73" s="14" t="s">
         <v>41</v>
       </c>
@@ -4073,7 +3961,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B74" s="14" t="s">
         <v>42</v>
       </c>
@@ -4105,7 +3993,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B75" s="14" t="s">
         <v>42</v>
       </c>
@@ -4137,7 +4025,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B76" s="14" t="s">
         <v>42</v>
       </c>
@@ -4169,7 +4057,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B77" s="14" t="s">
         <v>169</v>
       </c>
@@ -4201,7 +4089,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="B78" s="14" t="s">
         <v>169</v>
       </c>
@@ -4233,7 +4121,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B79" s="14" t="s">
         <v>169</v>
       </c>
@@ -4265,7 +4153,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B80" s="14" t="s">
         <v>169</v>
       </c>
@@ -4297,7 +4185,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="B81" s="14" t="s">
         <v>29</v>
       </c>
@@ -4331,39 +4219,39 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G11:G81">
-    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
       <formula>"Cerrado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
       <formula>"Revisión"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
       <formula>"En Desarrollo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>"No Iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
       <formula>"Listo!"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"Stand by"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Stand by"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K81">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"NULA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"BAJA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"MEDIA"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"ALTA"</formula>
     </cfRule>
   </conditionalFormatting>
